--- a/data/hotels_by_city/Houston/Houston_shard_216.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_216.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="840">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107913-Reviews-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Galleria-Westheimer.h202783.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2448 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r581921477-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107913</t>
+  </si>
+  <si>
+    <t>581921477</t>
+  </si>
+  <si>
+    <t>05/22/2018</t>
+  </si>
+  <si>
+    <t>The person at the front desk was very helpful.</t>
+  </si>
+  <si>
+    <t>You really have to give it to the staff at the front desk. His name is GUY ESTES and he probably is the nicest person you'll meet. I flew in to Houston only to find out that my hotel(Extended stay-Uptown) had overbooked and even though I had a reservation they didn't have a room for me. I had to walk at midnight to find another room which is when Guy stepped in and when he heard about my situation he immediately gave me a room and make sure I settled in completely he even helped me with my luggage. In short he saved the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded May 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2018</t>
+  </si>
+  <si>
+    <t>You really have to give it to the staff at the front desk. His name is GUY ESTES and he probably is the nicest person you'll meet. I flew in to Houston only to find out that my hotel(Extended stay-Uptown) had overbooked and even though I had a reservation they didn't have a room for me. I had to walk at midnight to find another room which is when Guy stepped in and when he heard about my situation he immediately gave me a room and make sure I settled in completely he even helped me with my luggage. In short he saved the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r577192071-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577192071</t>
+  </si>
+  <si>
+    <t>05/01/2018</t>
+  </si>
+  <si>
+    <t>Great Manager</t>
+  </si>
+  <si>
+    <t>The hotel managers Josh and Bobby took great care of me. After being stuck in houston for a cancelled flight and the area pretty much sold out. Josh made sure that i was accommodated. In addition to that Bobby the other manager reserved a shuttle for me and called me back with details. All and all i had a wonderful experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded May 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2018</t>
+  </si>
+  <si>
+    <t>The hotel managers Josh and Bobby took great care of me. After being stuck in houston for a cancelled flight and the area pretty much sold out. Josh made sure that i was accommodated. In addition to that Bobby the other manager reserved a shuttle for me and called me back with details. All and all i had a wonderful experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r576954329-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>576954329</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Stayed two nights. The place was dingy and terrible. The worst thing was my pillows were soaking wet and smelled like dirty hair. I didn't notice this until late because I was busy around the city all day, and whoever was working front desk was clearly annoyed at having to bring me new pillows--surprising, because I could have asked to move rooms or for a refund. My shower wasn't working; at least the woman who was working that day was much more pleasant and forthright about it. But at the same time someone came to fix it for me, someone else came to spray for bugs?! I expected much more, given the sheer competition nearby, plus the very pleasant stays I've had with this brand. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2018</t>
+  </si>
+  <si>
+    <t>Stayed two nights. The place was dingy and terrible. The worst thing was my pillows were soaking wet and smelled like dirty hair. I didn't notice this until late because I was busy around the city all day, and whoever was working front desk was clearly annoyed at having to bring me new pillows--surprising, because I could have asked to move rooms or for a refund. My shower wasn't working; at least the woman who was working that day was much more pleasant and forthright about it. But at the same time someone came to fix it for me, someone else came to spray for bugs?! I expected much more, given the sheer competition nearby, plus the very pleasant stays I've had with this brand. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r559360410-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>559360410</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Comfortable place to stay.</t>
+  </si>
+  <si>
+    <t>Both my Wife and I enjoyed our stay at this hotel.  We always do.  Every time we plan a trip to Houston, it includes a reservation at this hotel.  The staff always make sure our stay is comfortable and convenient.  The room is always comfortable and the price is easy on the pocketbook.  Please continue to provide what we have come to expect.  Thank you.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Both my Wife and I enjoyed our stay at this hotel.  We always do.  Every time we plan a trip to Houston, it includes a reservation at this hotel.  The staff always make sure our stay is comfortable and convenient.  The room is always comfortable and the price is easy on the pocketbook.  Please continue to provide what we have come to expect.  Thank you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r556687766-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556687766</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Not bad, not at all.</t>
+  </si>
+  <si>
+    <t>I’ve stayed before so I returned again. Good location. Traffic by the hotel is pretty bad during certain hours. Bedding had a couple of tears in it, and a strand of long hair. I was able to get over it. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded January 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2018</t>
+  </si>
+  <si>
+    <t>I’ve stayed before so I returned again. Good location. Traffic by the hotel is pretty bad during certain hours. Bedding had a couple of tears in it, and a strand of long hair. I was able to get over it. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r556163213-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556163213</t>
+  </si>
+  <si>
+    <t>01/24/2018</t>
+  </si>
+  <si>
+    <t>Another stay, at the Extended Stay</t>
+  </si>
+  <si>
+    <t>Very convenient,  sffordsble, safe enironment. I often recommend this place to fsmily and friends, and I'm interested in receiving hotel rewards at sometime in the future.  Do you have Hotel rewards? Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2018</t>
+  </si>
+  <si>
+    <t>Very convenient,  sffordsble, safe enironment. I often recommend this place to fsmily and friends, and I'm interested in receiving hotel rewards at sometime in the future.  Do you have Hotel rewards? Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r548401760-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548401760</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Great for a few nights</t>
+  </si>
+  <si>
+    <t>Overal a good location for short or long term stay. Location was secure and clean.  Great location for shopping and stores.  Kitchen was minimal but could use some attention. Shower was basic.  Room decoration felt a little dated and heavy.  A very functional hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Overal a good location for short or long term stay. Location was secure and clean.  Great location for shopping and stores.  Kitchen was minimal but could use some attention. Shower was basic.  Room decoration felt a little dated and heavy.  A very functional hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r547205300-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547205300</t>
+  </si>
+  <si>
+    <t>12/14/2017</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Great location which is near a big mall. Stable WiFi connection. Grab and go breakfast for people on the go. No frills stay. There’s a small kitchen in the room to do some cooking. Quiet and safe area with ample parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2017</t>
+  </si>
+  <si>
+    <t>Great location which is near a big mall. Stable WiFi connection. Grab and go breakfast for people on the go. No frills stay. There’s a small kitchen in the room to do some cooking. Quiet and safe area with ample parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r547133124-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>547133124</t>
+  </si>
+  <si>
+    <t>12/13/2017</t>
+  </si>
+  <si>
+    <t>Very Good Hotel</t>
+  </si>
+  <si>
+    <t>The room was excellent. It was clean with all the necessary facilities. The location was very close to Downtown. Overall, an excellent stay. The reception staff was very helpful. In my room, I had a queen bed, a kitchen facility with all necessary utensils along with microwave and fridge. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>The room was excellent. It was clean with all the necessary facilities. The location was very close to Downtown. Overall, an excellent stay. The reception staff was very helpful. In my room, I had a queen bed, a kitchen facility with all necessary utensils along with microwave and fridge. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r543451643-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>543451643</t>
+  </si>
+  <si>
+    <t>11/26/2017</t>
+  </si>
+  <si>
+    <t>Average. Room was not very clean—smelled of smoke.</t>
+  </si>
+  <si>
+    <t>The front desk personnel were very friendly. However, the room wasn’t very clean (the toilet was not clean).  The room smelled of smoke. I complained and the staff sprayed air freshener in the hall, however, the smell was overwhelming. I don’t smoke so it irritated my allergies all night.  MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>The front desk personnel were very friendly. However, the room wasn’t very clean (the toilet was not clean).  The room smelled of smoke. I complained and the staff sprayed air freshener in the hall, however, the smell was overwhelming. I don’t smoke so it irritated my allergies all night.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r541204930-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>541204930</t>
+  </si>
+  <si>
+    <t>11/15/2017</t>
+  </si>
+  <si>
+    <t>This Place is Disgusting</t>
+  </si>
+  <si>
+    <t>This hotel is disgusting. If you're used to staying at hotels with nice towels, cozy comforters, and floors that don't stick to your feet, don't even bother coming here. I am a Houston local and my home is still under construction from Harvey. I needed a last minute place to stay for a few more days while a few unexpected final things were being finished at home. I opted for this hotel because it advertised having a kitchen, breakfast included, and a washer/dryer, all for what seemed like a pretty good price. 
+We got there at 2:45 pm, check in was at 3:00. They ALMOST charged me $25 for checking in early, but someone else in the lobby was already waiting for 3:00 to hit, and he told me about the extra charge for checking in before 3. So beware of that.
+The room had a funny smell when we first walked in but we were still open minded. I was afraid to turn on the stove because it looked like it would set the building on fire and they don't have a single kitchen utensil, so the kitchen is a complete waste unless you carry pots/pans, silverware, plates and glasses with you when you travel. I asked downstairs, they gave me silverware with crusty spots on them, so that was out. 
+The community washer/dryers don't work.  Again, another waste. I also don't know how I would feel leaving my...This hotel is disgusting. If you're used to staying at hotels with nice towels, cozy comforters, and floors that don't stick to your feet, don't even bother coming here. I am a Houston local and my home is still under construction from Harvey. I needed a last minute place to stay for a few more days while a few unexpected final things were being finished at home. I opted for this hotel because it advertised having a kitchen, breakfast included, and a washer/dryer, all for what seemed like a pretty good price. We got there at 2:45 pm, check in was at 3:00. They ALMOST charged me $25 for checking in early, but someone else in the lobby was already waiting for 3:00 to hit, and he told me about the extra charge for checking in before 3. So beware of that.The room had a funny smell when we first walked in but we were still open minded. I was afraid to turn on the stove because it looked like it would set the building on fire and they don't have a single kitchen utensil, so the kitchen is a complete waste unless you carry pots/pans, silverware, plates and glasses with you when you travel. I asked downstairs, they gave me silverware with crusty spots on them, so that was out. The community washer/dryers don't work.  Again, another waste. I also don't know how I would feel leaving my clothes unattended in that laundry room where anyone could have walked right in anyways. The paper-thin comforter on the bed was full of brown stains, I just put it on the floor and slept with the single sheet for 3 nights. Another thing, housekeeping didn't clean our room for 3 straight days.  I didn't bother mentioning it because of the random people lingering in the hallways. I didn't want to chance anyone having access to our room while we were gone.After spending night 2 of 3 here, I asked the front desk lady what the cancellation policy was if I were to cancel the last night. She was staring at her computer, not even bothering to make eye contact and simply said, "I don't know, sorry"....Shouldn't a front desk clerk know --what you would think would be---a basic policy? I asked if she could find out and she said she would have to call the manager, which seemed to be a bother to her. Never heard back. I stayed because I didn't want to get charged some ridiculous fee. This place will charge extra for anything and everything they can (excessive trash, trying to check in 10 min before 3:00, etc.).The "breakfast" was lukewarm coffee and packets of instant oatmeal, keep in mind you don't have a bowl or silverware to eat that with in your room. I will say the one good thing about this place is the location. Lots of shops and restaurants and easily access to the highways. Otherwise, it was uncomfortable. Call me high maintenance and maybe that's it, but it just wasn't for me. Just know what you're signing up for, that's all I can say.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded November 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is disgusting. If you're used to staying at hotels with nice towels, cozy comforters, and floors that don't stick to your feet, don't even bother coming here. I am a Houston local and my home is still under construction from Harvey. I needed a last minute place to stay for a few more days while a few unexpected final things were being finished at home. I opted for this hotel because it advertised having a kitchen, breakfast included, and a washer/dryer, all for what seemed like a pretty good price. 
+We got there at 2:45 pm, check in was at 3:00. They ALMOST charged me $25 for checking in early, but someone else in the lobby was already waiting for 3:00 to hit, and he told me about the extra charge for checking in before 3. So beware of that.
+The room had a funny smell when we first walked in but we were still open minded. I was afraid to turn on the stove because it looked like it would set the building on fire and they don't have a single kitchen utensil, so the kitchen is a complete waste unless you carry pots/pans, silverware, plates and glasses with you when you travel. I asked downstairs, they gave me silverware with crusty spots on them, so that was out. 
+The community washer/dryers don't work.  Again, another waste. I also don't know how I would feel leaving my...This hotel is disgusting. If you're used to staying at hotels with nice towels, cozy comforters, and floors that don't stick to your feet, don't even bother coming here. I am a Houston local and my home is still under construction from Harvey. I needed a last minute place to stay for a few more days while a few unexpected final things were being finished at home. I opted for this hotel because it advertised having a kitchen, breakfast included, and a washer/dryer, all for what seemed like a pretty good price. We got there at 2:45 pm, check in was at 3:00. They ALMOST charged me $25 for checking in early, but someone else in the lobby was already waiting for 3:00 to hit, and he told me about the extra charge for checking in before 3. So beware of that.The room had a funny smell when we first walked in but we were still open minded. I was afraid to turn on the stove because it looked like it would set the building on fire and they don't have a single kitchen utensil, so the kitchen is a complete waste unless you carry pots/pans, silverware, plates and glasses with you when you travel. I asked downstairs, they gave me silverware with crusty spots on them, so that was out. The community washer/dryers don't work.  Again, another waste. I also don't know how I would feel leaving my clothes unattended in that laundry room where anyone could have walked right in anyways. The paper-thin comforter on the bed was full of brown stains, I just put it on the floor and slept with the single sheet for 3 nights. Another thing, housekeeping didn't clean our room for 3 straight days.  I didn't bother mentioning it because of the random people lingering in the hallways. I didn't want to chance anyone having access to our room while we were gone.After spending night 2 of 3 here, I asked the front desk lady what the cancellation policy was if I were to cancel the last night. She was staring at her computer, not even bothering to make eye contact and simply said, "I don't know, sorry"....Shouldn't a front desk clerk know --what you would think would be---a basic policy? I asked if she could find out and she said she would have to call the manager, which seemed to be a bother to her. Never heard back. I stayed because I didn't want to get charged some ridiculous fee. This place will charge extra for anything and everything they can (excessive trash, trying to check in 10 min before 3:00, etc.).The "breakfast" was lukewarm coffee and packets of instant oatmeal, keep in mind you don't have a bowl or silverware to eat that with in your room. I will say the one good thing about this place is the location. Lots of shops and restaurants and easily access to the highways. Otherwise, it was uncomfortable. Call me high maintenance and maybe that's it, but it just wasn't for me. Just know what you're signing up for, that's all I can say.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r540273244-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540273244</t>
+  </si>
+  <si>
+    <t>11/11/2017</t>
+  </si>
+  <si>
+    <t>Really Good Location</t>
+  </si>
+  <si>
+    <t>Extended Stay Galleria is an average hotel, needs some improvements, walking distance to the Galleria’s Mall and also to the waterwall, breakfast was just coffe and muffins, do not expect nothing else, check in  process was quite delay due to unavailability of the room. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 12, 2017</t>
+  </si>
+  <si>
+    <t>Extended Stay Galleria is an average hotel, needs some improvements, walking distance to the Galleria’s Mall and also to the waterwall, breakfast was just coffe and muffins, do not expect nothing else, check in  process was quite delay due to unavailability of the room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r528017975-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528017975</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>The internet is STILL soooo slowwwwwww, where are those engineers?</t>
+  </si>
+  <si>
+    <t>I'm sad to report that since my last review ESA didn't do anything to fix the internet. I was still at the hotel as my company was having me stay here. At the time I wrote my first review, I was potentially staying for another 3-4 weeks. If someone got me even 15mbps internet wifi, which is still not that fast, I would have given the hotel 5 stars just because of the customer service. Now I think even less of ESA. Before it was just slow internet now they're a bad product with false promises. I'm checking out on Sat so no point in fixing things now but I'm not coming back. Sorry, you could have turned this around. I hope you fix this in the future and for other customers.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded September 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2017</t>
+  </si>
+  <si>
+    <t>I'm sad to report that since my last review ESA didn't do anything to fix the internet. I was still at the hotel as my company was having me stay here. At the time I wrote my first review, I was potentially staying for another 3-4 weeks. If someone got me even 15mbps internet wifi, which is still not that fast, I would have given the hotel 5 stars just because of the customer service. Now I think even less of ESA. Before it was just slow internet now they're a bad product with false promises. I'm checking out on Sat so no point in fixing things now but I'm not coming back. Sorry, you could have turned this around. I hope you fix this in the future and for other customers.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r523994303-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>523994303</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>OK for Business Travel</t>
+  </si>
+  <si>
+    <t>The staff is amazing! The front desk team is top notch! However, the rooms could be a bit cleaner - I only had an issue with the kitchen- it could have been cleaner. Also, all but one washing machine was broken.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded September 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2017</t>
+  </si>
+  <si>
+    <t>The staff is amazing! The front desk team is top notch! However, the rooms could be a bit cleaner - I only had an issue with the kitchen- it could have been cleaner. Also, all but one washing machine was broken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r520440724-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>520440724</t>
+  </si>
+  <si>
+    <t>09/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love this place </t>
+  </si>
+  <si>
+    <t>Convenient location , nice staff and facilities. They are located right up the street from the galleria along with a lot of restaurants. I am a long term guest here and have never had any issues with the staff etc. definitely would recommend MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2017</t>
+  </si>
+  <si>
+    <t>Convenient location , nice staff and facilities. They are located right up the street from the galleria along with a lot of restaurants. I am a long term guest here and have never had any issues with the staff etc. definitely would recommend More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r517515279-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517515279</t>
+  </si>
+  <si>
+    <t>08/25/2017</t>
+  </si>
+  <si>
+    <t>Felt unsafe!</t>
+  </si>
+  <si>
+    <t>Had to stay here for 1month for my work and homeless people kept comming in and threatening GUEST! Also threatened the lady at the front desk! The homeless people would wait till someone left their room and before their door close they would sneak in and steal all their stuff!!The homeless would even check the doors at night to see if any were unlocked... we could hear them wiggle our door nobs and our co-workers also had this problem... over all we felt very unsafe at this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 30, 2017</t>
+  </si>
+  <si>
+    <t>Had to stay here for 1month for my work and homeless people kept comming in and threatening GUEST! Also threatened the lady at the front desk! The homeless people would wait till someone left their room and before their door close they would sneak in and steal all their stuff!!The homeless would even check the doors at night to see if any were unlocked... we could hear them wiggle our door nobs and our co-workers also had this problem... over all we felt very unsafe at this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r517081174-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>517081174</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>VIP Service</t>
+  </si>
+  <si>
+    <t>Great hotel with even greater staff. Both the Hotel Manager Deianari Senegal and Assistant General Manager Sheena Gaines were of great help and super friendly. Everyone was super helpful, and were able to answer all my questions. I arrived 5 hours before check-in, and they were able to accomodate me right away by putting me as a VIP.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2017</t>
+  </si>
+  <si>
+    <t>Great hotel with even greater staff. Both the Hotel Manager Deianari Senegal and Assistant General Manager Sheena Gaines were of great help and super friendly. Everyone was super helpful, and were able to answer all my questions. I arrived 5 hours before check-in, and they were able to accomodate me right away by putting me as a VIP.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r512694104-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>512694104</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Extended stay in Houston, TX</t>
+  </si>
+  <si>
+    <t>I just concluded an AWESOME stay at your property in Houston, TX.  The Hotel Manager, Sheena Gaines, and her staff were great to work with, provided much-needed directions to getting around Houston, and always responded to my requests with a sense of urgency.  This location and staff has been absolutely excellent.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>I just concluded an AWESOME stay at your property in Houston, TX.  The Hotel Manager, Sheena Gaines, and her staff were great to work with, provided much-needed directions to getting around Houston, and always responded to my requests with a sense of urgency.  This location and staff has been absolutely excellent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r509536346-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>509536346</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>What you need for a long stay</t>
+  </si>
+  <si>
+    <t>This Extended Stay America was particularly comfortable in that I had everything I need when I travel, a hot cup of coffee in the morning and internet is key for me.  Wifi was pretty good, only got sketchy once.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded August 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2017</t>
+  </si>
+  <si>
+    <t>This Extended Stay America was particularly comfortable in that I had everything I need when I travel, a hot cup of coffee in the morning and internet is key for me.  Wifi was pretty good, only got sketchy once.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r506888323-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506888323</t>
+  </si>
+  <si>
+    <t>07/29/2017</t>
+  </si>
+  <si>
+    <t>Fun trip!</t>
+  </si>
+  <si>
+    <t>Was pleasantly surprised how quite the property was! Slept like a baby.  Staff was very accomodating. Will use this property the next time in town. Grandson wants to go back to the skating rink at the Gallaria.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2017</t>
+  </si>
+  <si>
+    <t>Was pleasantly surprised how quite the property was! Slept like a baby.  Staff was very accomodating. Will use this property the next time in town. Grandson wants to go back to the skating rink at the Gallaria.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r506486485-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>506486485</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Would not recommend this hotel to travelers.</t>
+  </si>
+  <si>
+    <t>We came into Houston late the night we were checking in (12-12:30 AM), so I made sure to leave a comment upon booking that we would be checking in late. Upon arrival, the front desk clerk mentioned that we 'were lucky' to even get a room, as the hotel often overbooks and they have to turn away guests who pre-paid for their booking online, like we did. We couldn't believe that a hotel would have this policy, especially as we were exhausted after a full day of travel and couldn't imagine being turned away when you've pre-paid.
+The hallway smelled like cigarette smoke, but our room did not, thank goodness.
+The room itself was nothing special, but it did have a small kitchen with full size refrigerator, which would be nice if you were staying there a few days.
+The beds were not comfortable - very soft mattress that you sunk into and could feel every move of your sleeping partner. The sheets were thin, and there were no extra blankets, so I had to put on a few layers of clothing to feel like I had covers on.
+The room in generally just seemed not very thoroughly cleaned - the bathroom had some strange stains on the artwork, and definitely just didn't feel "clean." We were there for only about 8 hours, so I was too tired to consider changing rooms, but this experience was definitely sub-par.
+The front...We came into Houston late the night we were checking in (12-12:30 AM), so I made sure to leave a comment upon booking that we would be checking in late. Upon arrival, the front desk clerk mentioned that we 'were lucky' to even get a room, as the hotel often overbooks and they have to turn away guests who pre-paid for their booking online, like we did. We couldn't believe that a hotel would have this policy, especially as we were exhausted after a full day of travel and couldn't imagine being turned away when you've pre-paid.The hallway smelled like cigarette smoke, but our room did not, thank goodness.The room itself was nothing special, but it did have a small kitchen with full size refrigerator, which would be nice if you were staying there a few days.The beds were not comfortable - very soft mattress that you sunk into and could feel every move of your sleeping partner. The sheets were thin, and there were no extra blankets, so I had to put on a few layers of clothing to feel like I had covers on.The room in generally just seemed not very thoroughly cleaned - the bathroom had some strange stains on the artwork, and definitely just didn't feel "clean." We were there for only about 8 hours, so I was too tired to consider changing rooms, but this experience was definitely sub-par.The front desk staff is frequently not at the desk - I went down at about 1am to ask if there was a vending machine, and waited about 5 min. There is no bell or anything, so you're just at the mercy of if there happens to be someone at the front desk.The morning front desk clerk was a lot friendlier, and let us know about the free coffee and muffins. She asked us to review them on trip advisor, assuming that we had a great trip - I definitely appreciated her friendly attitude and seems to really care about her job and improving the experience for others, so I was convinced to share this review.All in all - for the price, if you're just passing through and need a place to crash, that's what you'll get. But for the quality of the beds, the dirtiness, and the 'you might get a room, you might not' policy, I'd skip this place next time and spend $20 more on a nicer hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>We came into Houston late the night we were checking in (12-12:30 AM), so I made sure to leave a comment upon booking that we would be checking in late. Upon arrival, the front desk clerk mentioned that we 'were lucky' to even get a room, as the hotel often overbooks and they have to turn away guests who pre-paid for their booking online, like we did. We couldn't believe that a hotel would have this policy, especially as we were exhausted after a full day of travel and couldn't imagine being turned away when you've pre-paid.
+The hallway smelled like cigarette smoke, but our room did not, thank goodness.
+The room itself was nothing special, but it did have a small kitchen with full size refrigerator, which would be nice if you were staying there a few days.
+The beds were not comfortable - very soft mattress that you sunk into and could feel every move of your sleeping partner. The sheets were thin, and there were no extra blankets, so I had to put on a few layers of clothing to feel like I had covers on.
+The room in generally just seemed not very thoroughly cleaned - the bathroom had some strange stains on the artwork, and definitely just didn't feel "clean." We were there for only about 8 hours, so I was too tired to consider changing rooms, but this experience was definitely sub-par.
+The front...We came into Houston late the night we were checking in (12-12:30 AM), so I made sure to leave a comment upon booking that we would be checking in late. Upon arrival, the front desk clerk mentioned that we 'were lucky' to even get a room, as the hotel often overbooks and they have to turn away guests who pre-paid for their booking online, like we did. We couldn't believe that a hotel would have this policy, especially as we were exhausted after a full day of travel and couldn't imagine being turned away when you've pre-paid.The hallway smelled like cigarette smoke, but our room did not, thank goodness.The room itself was nothing special, but it did have a small kitchen with full size refrigerator, which would be nice if you were staying there a few days.The beds were not comfortable - very soft mattress that you sunk into and could feel every move of your sleeping partner. The sheets were thin, and there were no extra blankets, so I had to put on a few layers of clothing to feel like I had covers on.The room in generally just seemed not very thoroughly cleaned - the bathroom had some strange stains on the artwork, and definitely just didn't feel "clean." We were there for only about 8 hours, so I was too tired to consider changing rooms, but this experience was definitely sub-par.The front desk staff is frequently not at the desk - I went down at about 1am to ask if there was a vending machine, and waited about 5 min. There is no bell or anything, so you're just at the mercy of if there happens to be someone at the front desk.The morning front desk clerk was a lot friendlier, and let us know about the free coffee and muffins. She asked us to review them on trip advisor, assuming that we had a great trip - I definitely appreciated her friendly attitude and seems to really care about her job and improving the experience for others, so I was convinced to share this review.All in all - for the price, if you're just passing through and need a place to crash, that's what you'll get. But for the quality of the beds, the dirtiness, and the 'you might get a room, you might not' policy, I'd skip this place next time and spend $20 more on a nicer hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r503586764-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503586764</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay</t>
+  </si>
+  <si>
+    <t>Staff is really nice and professional. Room service is always on timeI will definitely be back to stay. Me and my Husband absolutely love it here and rate them a 10 star hotel. Thank you Galleria extended stay America. Me and my husband Kenneth Edwards will always return back MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Staff is really nice and professional. Room service is always on timeI will definitely be back to stay. Me and my Husband absolutely love it here and rate them a 10 star hotel. Thank you Galleria extended stay America. Me and my husband Kenneth Edwards will always return back More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r503055859-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503055859</t>
+  </si>
+  <si>
+    <t>07/17/2017</t>
+  </si>
+  <si>
+    <t>Did not enjoy my stay</t>
+  </si>
+  <si>
+    <t>I normally enjoy staying at Extended Stay America, but this location had many problems. There were customers who could not enter because their room key did not unlock the entrance into the building (during the day). Some guest already inside had to unlock the door for people to get in while the clerk was working with another guest. When my room was checked out to me, another guest entered my room while I was undressed because they were checked out the same room by accident because their computers were down. When I left the facility and returned, my key did not work for the room and when I requested room service for new sheets for the bed (because of the odor), I was informed that room service does not work in the evenings. So I went to the front office and picked up new sheets and changed them myself. Overall, I made it work for only 1 night there, but I must admit I was disappointed with my experience there.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>I normally enjoy staying at Extended Stay America, but this location had many problems. There were customers who could not enter because their room key did not unlock the entrance into the building (during the day). Some guest already inside had to unlock the door for people to get in while the clerk was working with another guest. When my room was checked out to me, another guest entered my room while I was undressed because they were checked out the same room by accident because their computers were down. When I left the facility and returned, my key did not work for the room and when I requested room service for new sheets for the bed (because of the odor), I was informed that room service does not work in the evenings. So I went to the front office and picked up new sheets and changed them myself. Overall, I made it work for only 1 night there, but I must admit I was disappointed with my experience there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r502178086-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502178086</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to any one the room was so dirtyThe smell was grossVomit on the front entranceTotally unacceptable I wouldn't let my dogs stay in this hotel as they would definitely catch fleasMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2017</t>
+  </si>
+  <si>
+    <t>I would not recommend this hotel to any one the room was so dirtyThe smell was grossVomit on the front entranceTotally unacceptable I wouldn't let my dogs stay in this hotel as they would definitely catch fleasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r497678163-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497678163</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Sad, dull, old and needs cleaning!</t>
+  </si>
+  <si>
+    <t>Just really a sad property where every effort is made to outlive the appearance and function of furnishings and room constructions, yet it failed big time. Just need to gut the place and build a new one ...MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Just really a sad property where every effort is made to outlive the appearance and function of furnishings and room constructions, yet it failed big time. Just need to gut the place and build a new one ...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r497468861-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497468861</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Very good place to stay</t>
+  </si>
+  <si>
+    <t>I had a good stay on this hotel, the price is reasonable, room was comfortable.  I rate this hotel as very good because of the wonderful staff especially Denise who was so professional, friendly, and accommodating.  She made it well worth staying on this place.  Thanks Denise! MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 1, 2017</t>
+  </si>
+  <si>
+    <t>I had a good stay on this hotel, the price is reasonable, room was comfortable.  I rate this hotel as very good because of the wonderful staff especially Denise who was so professional, friendly, and accommodating.  She made it well worth staying on this place.  Thanks Denise! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r496513212-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496513212</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>Simple and sweet</t>
+  </si>
+  <si>
+    <t>A simple hotel with a simple kitchen.  Water didn't work in one bathroom but it was ok. Was there only 2Nights didn't have issues with anyone or anything too bad to be up set.  They are very secure though in this buildingMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>A simple hotel with a simple kitchen.  Water didn't work in one bathroom but it was ok. Was there only 2Nights didn't have issues with anyone or anything too bad to be up set.  They are very secure though in this buildingMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r496405765-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496405765</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>No Pots and Pans!</t>
+  </si>
+  <si>
+    <t>When my friend and I arrived, we were greeted warmly and with a big smile.  We went up to the rooms and checked them out before carrying our stuff in.  My room was okay; my friend's room wasn't.  She wound up having to change rooms because the kitchen was dirty.  Once we moved in, we asked the front desk for kitchen items we could use.  Her response was that there no pots and pans or kitchen utensils because they had all been steadily stolen by other guests and there were all on order.  Really a problem for us because we planned to save money by eating in our rooms with food we brought!  Cost us extra because we had to eat out!   I guess the moral of this review is:  Call the hotel direct and ask if they have pots and pans before you book the room!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded June 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2017</t>
+  </si>
+  <si>
+    <t>When my friend and I arrived, we were greeted warmly and with a big smile.  We went up to the rooms and checked them out before carrying our stuff in.  My room was okay; my friend's room wasn't.  She wound up having to change rooms because the kitchen was dirty.  Once we moved in, we asked the front desk for kitchen items we could use.  Her response was that there no pots and pans or kitchen utensils because they had all been steadily stolen by other guests and there were all on order.  Really a problem for us because we planned to save money by eating in our rooms with food we brought!  Cost us extra because we had to eat out!   I guess the moral of this review is:  Call the hotel direct and ask if they have pots and pans before you book the room!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r495295420-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>495295420</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>Great place for value paid</t>
+  </si>
+  <si>
+    <t>Great place although house keeping never showed up to clean the room, the room was however in great shape and well maintained. will most definitely recommend this place to others. Fantastic location. The amenities were equally in good working conditionMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2017</t>
+  </si>
+  <si>
+    <t>Great place although house keeping never showed up to clean the room, the room was however in great shape and well maintained. will most definitely recommend this place to others. Fantastic location. The amenities were equally in good working conditionMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r493964654-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493964654</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>convenient location</t>
+  </si>
+  <si>
+    <t>The service was mediocre, (twenty minutes to check in, and lots of tedious paperwork) the room was clean, but the headboard dusty. Location and price are a positive. The staff looked tired and worn out, other than that it was alrightMoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded June 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2017</t>
+  </si>
+  <si>
+    <t>The service was mediocre, (twenty minutes to check in, and lots of tedious paperwork) the room was clean, but the headboard dusty. Location and price are a positive. The staff looked tired and worn out, other than that it was alrightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r491383283-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491383283</t>
+  </si>
+  <si>
+    <t>06/07/2017</t>
+  </si>
+  <si>
+    <t>It was an overall a good stay.</t>
+  </si>
+  <si>
+    <t>It was a good stay. The location was good it wasn't far from the park or malls. The only bad thing was the bed and the service. What also sucked was the weather but that isn't anything that you all could have done. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded June 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2017</t>
+  </si>
+  <si>
+    <t>It was a good stay. The location was good it wasn't far from the park or malls. The only bad thing was the bed and the service. What also sucked was the weather but that isn't anything that you all could have done. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r489011245-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489011245</t>
+  </si>
+  <si>
+    <t>05/30/2017</t>
+  </si>
+  <si>
+    <t>There for MD Anderson</t>
+  </si>
+  <si>
+    <t>The hotel was a little further from the cancer center than I would have preferred.  The room need another going over for cleanliness Which I ended up doing myself. The bed was okay initially but tended to make us ache after about the 3rd night. The AC unit would quit working in the middle of the night so that led to sleeplessness due to the heat in the room.  One of the windows would not stay up without something to prop it open and it was quite noisy to have the windows open anyway. I have stayed in much worse however.  The staff is super friendly.  The treadmill on the 4th floor was broken.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>The hotel was a little further from the cancer center than I would have preferred.  The room need another going over for cleanliness Which I ended up doing myself. The bed was okay initially but tended to make us ache after about the 3rd night. The AC unit would quit working in the middle of the night so that led to sleeplessness due to the heat in the room.  One of the windows would not stay up without something to prop it open and it was quite noisy to have the windows open anyway. I have stayed in much worse however.  The staff is super friendly.  The treadmill on the 4th floor was broken.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r487942442-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487942442</t>
+  </si>
+  <si>
+    <t>05/26/2017</t>
+  </si>
+  <si>
+    <t>Relocating to Houston</t>
+  </si>
+  <si>
+    <t>I needed to stay an extra day in Houston and found this gem so close by to all the places I was trying to visit. You get all the basics plus a kitchenette. A couple of hours after I checked in, Denise, one of the front desk staff called my room to make sure I had settled comfortably which I appreciated. A follow up question of the same was asked as I was checking out by Sheena, the front desk mgr. I think this is great because you can talk face-to-face to someone who is going to make sure that any issues are resolved. Thanks ladies!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded May 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2017</t>
+  </si>
+  <si>
+    <t>I needed to stay an extra day in Houston and found this gem so close by to all the places I was trying to visit. You get all the basics plus a kitchenette. A couple of hours after I checked in, Denise, one of the front desk staff called my room to make sure I had settled comfortably which I appreciated. A follow up question of the same was asked as I was checking out by Sheena, the front desk mgr. I think this is great because you can talk face-to-face to someone who is going to make sure that any issues are resolved. Thanks ladies!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r476947691-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476947691</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t>Weekend getaway</t>
+  </si>
+  <si>
+    <t>Im from new jersey and we stayed here and was blown away by the nice people at the front desk. I  love visiting the south the people here a nice. Close to all the galleria we were able to walk there from the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Im from new jersey and we stayed here and was blown away by the nice people at the front desk. I  love visiting the south the people here a nice. Close to all the galleria we were able to walk there from the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r476256715-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476256715</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>My visit a not so good experience</t>
+  </si>
+  <si>
+    <t>In general the experience, beginning with the person on front desk was not the expected. The person on front desk rude. The place extremely dirty. did not meet expectations. I know is not expensive, but I have been in other hotels of the same range of prices and the experience has been by far better.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r469640531-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>469640531</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t>Honoring reservations is...optional?</t>
+  </si>
+  <si>
+    <t>We booked a room at the Westheimer location a week and a half in advance online and have credit card info to hold the room. After driving 4 hours and arriving at 9pm, we're told our room was given away because walk ins take priority over online reservations. We were relocated to another Extended Stay (a room with broken furniture) a few miles away, which was a nice gesture, I guess, but we'd chosen the other location because it was next to where business meetings were being held. 1/4 nights was comp'ed for the inconvenience, but I did confirm with Jeremy (guest relations contact number) that that is indeed their policy.Be warned that if you make a reservation with Extended Stay America, you may not have a room when you arrive.Better to book elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>We booked a room at the Westheimer location a week and a half in advance online and have credit card info to hold the room. After driving 4 hours and arriving at 9pm, we're told our room was given away because walk ins take priority over online reservations. We were relocated to another Extended Stay (a room with broken furniture) a few miles away, which was a nice gesture, I guess, but we'd chosen the other location because it was next to where business meetings were being held. 1/4 nights was comp'ed for the inconvenience, but I did confirm with Jeremy (guest relations contact number) that that is indeed their policy.Be warned that if you make a reservation with Extended Stay America, you may not have a room when you arrive.Better to book elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r465236116-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>465236116</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>First, there are two extended stay hotels around the corner from each other. Myself and my colleague stopped at the wrong one. Then parked in a paid parking spot but we knew we get free parking so we stayed and knew our ticket would be forgiven.
+Then we learned that quick maneuver off the freeway got us to the Sheraton hotel NOT the extended stay! The guys at the front desk said it's next door.. walk over... no problem guest do this all the time.
+Then we are sent into the dim lit walkways where we finally see the "EXTENDED STAY" green and white sign and walk just passed it to try and find and entrance and I FELL DOWN!!! 
+It dark! We got bags! No help! 
+Now I'm injured, my pants are torn and I'm still looking for the entrance to this place!
+We finally find it.
+With my bloody legs I wait to be attended to in line and find out I'm in at the wrong EXTENDED STAY!!!!! So I ask for first aid and the lady at the front desk says they don't have that!
+Then I asked for anything, water, no she said. I asked for the manager she said no manager until morning you can write your name down.
+I said well I fell on your property and I'm blessing my pants are torn. She says no you didn't and you are not a guest...First, there are two extended stay hotels around the corner from each other. Myself and my colleague stopped at the wrong one. Then parked in a paid parking spot but we knew we get free parking so we stayed and knew our ticket would be forgiven.Then we learned that quick maneuver off the freeway got us to the Sheraton hotel NOT the extended stay! The guys at the front desk said it's next door.. walk over... no problem guest do this all the time.Then we are sent into the dim lit walkways where we finally see the "EXTENDED STAY" green and white sign and walk just passed it to try and find and entrance and I FELL DOWN!!! It dark! We got bags! No help! Now I'm injured, my pants are torn and I'm still looking for the entrance to this place!We finally find it.With my bloody legs I wait to be attended to in line and find out I'm in at the wrong EXTENDED STAY!!!!! So I ask for first aid and the lady at the front desk says they don't have that!Then I asked for anything, water, no she said. I asked for the manager she said no manager until morning you can write your name down.I said well I fell on your property and I'm blessing my pants are torn. She says no you didn't and you are not a guest here you need to go!I asked for a sewing kit for my pants she said no we don't have that!And I'm not at the right EXTENDED STAY so you can leave. I said I still have a ways to walk in my condition and she did not care! I wobbled back to the Sheraton and the guys there felt really bad they validated my parking and at least showed compassion toward me.We drove to the other EXTENDED STAY.That ES smelled like old ugly fish!I had to fix the toilet! My tub was cracked. I'm on the 3rd floor wondering if the room below is getting flooded.  I knew now not to complain! But at least they did give me some items from there first aid kit to bandage my knees. Still no sewing kit. After seeing my bloody torn pants I think I will just throw them away.BTW.... their continental breakfast was prepackaged muffins and NOT fresh looking like in the photos. No fruit. Make your own oak meal ..I'm home now. I'm still in pain.I'm never going to forget my EXTENDED STAY experience and not for good reasons.   I giving one star for the one ES employee who seemed to care and looked for a first aid kit.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, there are two extended stay hotels around the corner from each other. Myself and my colleague stopped at the wrong one. Then parked in a paid parking spot but we knew we get free parking so we stayed and knew our ticket would be forgiven.
+Then we learned that quick maneuver off the freeway got us to the Sheraton hotel NOT the extended stay! The guys at the front desk said it's next door.. walk over... no problem guest do this all the time.
+Then we are sent into the dim lit walkways where we finally see the "EXTENDED STAY" green and white sign and walk just passed it to try and find and entrance and I FELL DOWN!!! 
+It dark! We got bags! No help! 
+Now I'm injured, my pants are torn and I'm still looking for the entrance to this place!
+We finally find it.
+With my bloody legs I wait to be attended to in line and find out I'm in at the wrong EXTENDED STAY!!!!! So I ask for first aid and the lady at the front desk says they don't have that!
+Then I asked for anything, water, no she said. I asked for the manager she said no manager until morning you can write your name down.
+I said well I fell on your property and I'm blessing my pants are torn. She says no you didn't and you are not a guest...First, there are two extended stay hotels around the corner from each other. Myself and my colleague stopped at the wrong one. Then parked in a paid parking spot but we knew we get free parking so we stayed and knew our ticket would be forgiven.Then we learned that quick maneuver off the freeway got us to the Sheraton hotel NOT the extended stay! The guys at the front desk said it's next door.. walk over... no problem guest do this all the time.Then we are sent into the dim lit walkways where we finally see the "EXTENDED STAY" green and white sign and walk just passed it to try and find and entrance and I FELL DOWN!!! It dark! We got bags! No help! Now I'm injured, my pants are torn and I'm still looking for the entrance to this place!We finally find it.With my bloody legs I wait to be attended to in line and find out I'm in at the wrong EXTENDED STAY!!!!! So I ask for first aid and the lady at the front desk says they don't have that!Then I asked for anything, water, no she said. I asked for the manager she said no manager until morning you can write your name down.I said well I fell on your property and I'm blessing my pants are torn. She says no you didn't and you are not a guest here you need to go!I asked for a sewing kit for my pants she said no we don't have that!And I'm not at the right EXTENDED STAY so you can leave. I said I still have a ways to walk in my condition and she did not care! I wobbled back to the Sheraton and the guys there felt really bad they validated my parking and at least showed compassion toward me.We drove to the other EXTENDED STAY.That ES smelled like old ugly fish!I had to fix the toilet! My tub was cracked. I'm on the 3rd floor wondering if the room below is getting flooded.  I knew now not to complain! But at least they did give me some items from there first aid kit to bandage my knees. Still no sewing kit. After seeing my bloody torn pants I think I will just throw them away.BTW.... their continental breakfast was prepackaged muffins and NOT fresh looking like in the photos. No fruit. Make your own oak meal ..I'm home now. I'm still in pain.I'm never going to forget my EXTENDED STAY experience and not for good reasons.   I giving one star for the one ES employee who seemed to care and looked for a first aid kit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r458322749-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458322749</t>
+  </si>
+  <si>
+    <t>02/09/2017</t>
+  </si>
+  <si>
+    <t>Super Bowl Weekend</t>
+  </si>
+  <si>
+    <t>I want to give a big "Shout Out" to Sheena the Manager and Jonathan on the front desk. We spent Super Bowl Weekend at the Extended Stay and Sheena and Jonathon both went above and beyond to make sure our stay was pleasurable. From the moment we arrived at the front desk...both greeted us warmly and assisted us with everything from extra towels, a roll out bed and directions to sports bars. If you want a 5 Star Hotel the Extended Stay is not for you...it is nonetheless clean and basic...however if you want 5 Star Customer Service at a low cost...this is the place for you. Thank you again! The Atlanta Ladies!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded February 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 16, 2017</t>
+  </si>
+  <si>
+    <t>I want to give a big "Shout Out" to Sheena the Manager and Jonathan on the front desk. We spent Super Bowl Weekend at the Extended Stay and Sheena and Jonathon both went above and beyond to make sure our stay was pleasurable. From the moment we arrived at the front desk...both greeted us warmly and assisted us with everything from extra towels, a roll out bed and directions to sports bars. If you want a 5 Star Hotel the Extended Stay is not for you...it is nonetheless clean and basic...however if you want 5 Star Customer Service at a low cost...this is the place for you. Thank you again! The Atlanta Ladies!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r458202009-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>458202009</t>
+  </si>
+  <si>
+    <t>02/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff good housekeeping and great location </t>
+  </si>
+  <si>
+    <t>I try to stay at extended stay hotels because of the kitchen. We moved to Houston and I chose this hotel because of the rate and location. The staff is very friendly. Everyone will try to help you at their best. Rooms are clean and you get all the utensils. The housekeeping staff also makes sure your room is clean and comfortable for your stay. I was not happy with couple of things. Breakfast- extended stay stopped serving fruits on the breakfast. This was across all the extended stay across US. The hotel did not put enough muffins to compensate that. The shower was not the best. It barely had any force to take proper bath. Third, no ironing board. Although I got it after requesting ( again thanks to great staff). The iron itself wasn't at all good. I had to spent a lot of time to iron my clothes. This may not be of importance to lot of people but it mattered most to me as I was not carrying one.Overall good place to say if you don't care for the points I mentioned above. MoreShow less</t>
+  </si>
+  <si>
+    <t>I try to stay at extended stay hotels because of the kitchen. We moved to Houston and I chose this hotel because of the rate and location. The staff is very friendly. Everyone will try to help you at their best. Rooms are clean and you get all the utensils. The housekeeping staff also makes sure your room is clean and comfortable for your stay. I was not happy with couple of things. Breakfast- extended stay stopped serving fruits on the breakfast. This was across all the extended stay across US. The hotel did not put enough muffins to compensate that. The shower was not the best. It barely had any force to take proper bath. Third, no ironing board. Although I got it after requesting ( again thanks to great staff). The iron itself wasn't at all good. I had to spent a lot of time to iron my clothes. This may not be of importance to lot of people but it mattered most to me as I was not carrying one.Overall good place to say if you don't care for the points I mentioned above. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r448383646-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>448383646</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>New Years Getaway</t>
+  </si>
+  <si>
+    <t>Our New Years Getaway at Extended Stay - Houston - Galleria was awesome! Whether you are staying just overnight or for a couple of days this is the perfect place to stay. Our room was PERFECT! It was large and the bed was comfortable, every aspect of our stay was great. We will definitely be back soon!</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r447329985-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447329985</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>OUTSTANDING CUSTOMER SERVICE AND CLEANLINESS</t>
+  </si>
+  <si>
+    <t>This is one of the most friendliness and cleanliness hotels that I have stayed with in quite some time. The service that wad given lets me know that my stay will be much appreciated and welcomed. The rooms were very clean without any dust or smelly Duvets.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>This is one of the most friendliness and cleanliness hotels that I have stayed with in quite some time. The service that wad given lets me know that my stay will be much appreciated and welcomed. The rooms were very clean without any dust or smelly Duvets.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r447263702-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447263702</t>
+  </si>
+  <si>
+    <t>Very Clean!</t>
+  </si>
+  <si>
+    <t>My stay here was awesome! Checking in was a breeze. Great location from the galleria mall. If you are looking for less traffic getting to &amp; from the mall, this is a great location for you. I will definitely be back!  I really enjoyed my stay MoreShow less</t>
+  </si>
+  <si>
+    <t>My stay here was awesome! Checking in was a breeze. Great location from the galleria mall. If you are looking for less traffic getting to &amp; from the mall, this is a great location for you. I will definitely be back!  I really enjoyed my stay More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r447236298-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447236298</t>
+  </si>
+  <si>
+    <t>Holiday trip</t>
+  </si>
+  <si>
+    <t>Great hotel and very friendly staff. My family weekend and I felt very at home the entire stay. Love the in room kitchen (stove, fridge, and microwave). Location was great and very close to many attractions.Definitely recommend this hotel to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel and very friendly staff. My family weekend and I felt very at home the entire stay. Love the in room kitchen (stove, fridge, and microwave). Location was great and very close to many attractions.Definitely recommend this hotel to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r447205941-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447205941</t>
+  </si>
+  <si>
+    <t>Friendcation</t>
+  </si>
+  <si>
+    <t>Check in was a breeze, staff was friendly, room was clean, and my housekeeping was on top of it, anything I needed they took care of it. Since it was a friendcation the kitchen came in handy! I'll definitely be returning soon! Keep up the good work!MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was a breeze, staff was friendly, room was clean, and my housekeeping was on top of it, anything I needed they took care of it. Since it was a friendcation the kitchen came in handy! I'll definitely be returning soon! Keep up the good work!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r445890385-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>445890385</t>
+  </si>
+  <si>
+    <t>12/21/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel </t>
+  </si>
+  <si>
+    <t>Front desk staff is really nice and welcoming. The parking is free and lots of spaces! Room is clean and quit. Anytime I needed towels or clean linen it was given with no problem I will stay at this hotel and I recommend to anyone! MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk staff is really nice and welcoming. The parking is free and lots of spaces! Room is clean and quit. Anytime I needed towels or clean linen it was given with no problem I will stay at this hotel and I recommend to anyone! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r441551769-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>441551769</t>
+  </si>
+  <si>
+    <t>12/02/2016</t>
+  </si>
+  <si>
+    <t>Fantastic staff and wonderful stay</t>
+  </si>
+  <si>
+    <t>I had an amazing stay at this hotel. The staff was caring and extremely professional. But the front employee Sheena really went above and beyond to make sure i was comfortable, and felt welcomed. I would recommend this hotel to anyone staying in the Houston. Thank you very much extended stay especially Sheena for making my stay great.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded December 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 8, 2016</t>
+  </si>
+  <si>
+    <t>I had an amazing stay at this hotel. The staff was caring and extremely professional. But the front employee Sheena really went above and beyond to make sure i was comfortable, and felt welcomed. I would recommend this hotel to anyone staying in the Houston. Thank you very much extended stay especially Sheena for making my stay great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r440671810-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440671810</t>
+  </si>
+  <si>
+    <t>11/28/2016</t>
+  </si>
+  <si>
+    <t>Great Location &amp; Great Stay</t>
+  </si>
+  <si>
+    <t>The hotel staff here is amazing!  I travel all the time for business and found them to be some of the friendliest I have come across.  I travel with an emotional support dog as well and they made us both feel very welcome.  The location is great too...close to everything.  This is my new go to hotel in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>The hotel staff here is amazing!  I travel all the time for business and found them to be some of the friendliest I have come across.  I travel with an emotional support dog as well and they made us both feel very welcome.  The location is great too...close to everything.  This is my new go to hotel in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r440507075-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>440507075</t>
+  </si>
+  <si>
+    <t>11/27/2016</t>
+  </si>
+  <si>
+    <t>Amazing energy and customer service  Thank You Sheena</t>
+  </si>
+  <si>
+    <t>Nice location and night security on the property . The people at the front desk are always welcoming and friendy. I would recommend to anyone that wants to be in the area at a decent price.  Thanks....MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice location and night security on the property . The people at the front desk are always welcoming and friendy. I would recommend to anyone that wants to be in the area at a decent price.  Thanks....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r438290788-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438290788</t>
+  </si>
+  <si>
+    <t>11/18/2016</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay</t>
+  </si>
+  <si>
+    <t>I like write my review in a fair way; I stayed in this Hotel couple of times different occasion/time of year because hotel location is good and near to the area I needed to go. Room facilities are in acceptable level, specially if some body wants to cook in the hotel, beds are clean, bed sheet &amp; towels smell fresh. House keeping team are kind and polite and do weekly house keeping on time and changes every things. Maintenance gentleman is handy and will help to solve any technical issue a guest may report. Management team are friendly and will do their best to help, specially Ms. Sheena &amp; Marquise. before in the Grab&amp; Go Breakfast fruit was available but not any more and I wish if their senior management could bring back those items back to the menu again. Personally I had no issue with staying in this hotel and if they keep the services &amp; price same always even better and I need to be in Houston any time, sure I will check here first.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>I like write my review in a fair way; I stayed in this Hotel couple of times different occasion/time of year because hotel location is good and near to the area I needed to go. Room facilities are in acceptable level, specially if some body wants to cook in the hotel, beds are clean, bed sheet &amp; towels smell fresh. House keeping team are kind and polite and do weekly house keeping on time and changes every things. Maintenance gentleman is handy and will help to solve any technical issue a guest may report. Management team are friendly and will do their best to help, specially Ms. Sheena &amp; Marquise. before in the Grab&amp; Go Breakfast fruit was available but not any more and I wish if their senior management could bring back those items back to the menu again. Personally I had no issue with staying in this hotel and if they keep the services &amp; price same always even better and I need to be in Houston any time, sure I will check here first.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r438281417-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438281417</t>
+  </si>
+  <si>
+    <t>Great Staffs and Customer services</t>
+  </si>
+  <si>
+    <t>The customer services are awsome and they are really helping customers what they need. Sheela's smile always makes mine day shine. Good location and easy to access to the freeway. Lots of nice restaurants nearby and shopping malls. Worth to stay ~MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded December 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2016</t>
+  </si>
+  <si>
+    <t>The customer services are awsome and they are really helping customers what they need. Sheela's smile always makes mine day shine. Good location and easy to access to the freeway. Lots of nice restaurants nearby and shopping malls. Worth to stay ~More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r437483642-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437483642</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Much Appreciated</t>
+  </si>
+  <si>
+    <t>We appreciated service we received while in Houston this past weekend. My family and I were there for treatment at M.D. Anderson. Jonathan was extremely helpful and polite while we were there. Family is already stressed out enough with the medical situation, it is refreshing to have good service with a smile.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>We appreciated service we received while in Houston this past weekend. My family and I were there for treatment at M.D. Anderson. Jonathan was extremely helpful and polite while we were there. Family is already stressed out enough with the medical situation, it is refreshing to have good service with a smile.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r393833507-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393833507</t>
+  </si>
+  <si>
+    <t>07/18/2016</t>
+  </si>
+  <si>
+    <t>Good for long stay</t>
+  </si>
+  <si>
+    <t>They provide utensils and cocking gas.. so, you can cook and enjoy your homely food, if you know cocking.. the staff is friendly there. wifi speed is ok, not so good.They provide some kind of chocolates as breakfast, frankly, I don't like to eat chocolates as breakfast..MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded August 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2016</t>
+  </si>
+  <si>
+    <t>They provide utensils and cocking gas.. so, you can cook and enjoy your homely food, if you know cocking.. the staff is friendly there. wifi speed is ok, not so good.They provide some kind of chocolates as breakfast, frankly, I don't like to eat chocolates as breakfast..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r386523653-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386523653</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>scratchy sheets &amp; towels</t>
+  </si>
+  <si>
+    <t>We got a great price on this hotel which was good.  It was very clean but old, the sheets were a little scratchy &amp; the towels were even more scratchy.  The staff was very friendly &amp; helpful, but the room was just for sleeping. The in room refrigerator was very noisy (we unplugged it to sleep) and the light was like a strobe light for the first 3 to 4 minutes after turning it on, two of the three desk/wall lights didn't work.  Not a place we wanted to hang out, which worked out well for our purposes on this trip but would not want to stay here for an extended time or pay the posted room rates.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We got a great price on this hotel which was good.  It was very clean but old, the sheets were a little scratchy &amp; the towels were even more scratchy.  The staff was very friendly &amp; helpful, but the room was just for sleeping. The in room refrigerator was very noisy (we unplugged it to sleep) and the light was like a strobe light for the first 3 to 4 minutes after turning it on, two of the three desk/wall lights didn't work.  Not a place we wanted to hang out, which worked out well for our purposes on this trip but would not want to stay here for an extended time or pay the posted room rates.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r362502729-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362502729</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Average at best</t>
+  </si>
+  <si>
+    <t>The hotel is very dated, linen is old and harsh to touch, there is no kitchen utensils in the room you have to request them in the lobby.Good location if you are wanting close to the Galleria.There are no safes availableWe have stayed in a few of these types of accommodations previously and this is defiantly one of the more average ones.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r345053811-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345053811</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>TRASH PICK UP!!!!</t>
+  </si>
+  <si>
+    <t>The WORST!!!! place ever -- facilities not terrible but the trash pick-up on Mon, Wed and Fri took place between 3:30AM and 7AM.  Given location of trash bins, it sounded like a herd of elephants.  After repeatedly complaining, I was told management could do nothing about it.  I immediately checked out and have taken it off our company approved list.  This could have been easily fixed by a call to the trash company or even better the trash bins should be moved to the front of the property so it doesn't echo throughout the entire property!  STAY AWAY!!!!!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r341822670-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341822670</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Very good location next to Galleria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I Spent 3 weeks in this hotel in Jan. 2014. The room is quite spacious. Services and Amenities are ok. The small kitchen is quite handy that you could prepare some food.  Shower water pressure was not good. The location is very good, it's next to a very authentic Italian restaurant and a pharmacy. And there are plenty shops including Galleria and restaurants within 10-15 mins walking along Westheimer. The downside is that the breakfast is 'grab and go', which is very basic. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r329093158-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329093158</t>
+  </si>
+  <si>
+    <t>11/25/2015</t>
+  </si>
+  <si>
+    <t>Friendly, Helpful Staff and Clean Rooms</t>
+  </si>
+  <si>
+    <t>My spouse and I have stayed at this Extended Stay many times. Each and every time we are greeted with a warm, friendly hello from Moazzam usually. He always asks how we are doing and how our family is. He even hugged me telling me Happy Thanksgiving today! Sheena, Guy and Julio are also very friendly and willing to help with anything we need from extra pillows to more coffee. Guy even stayed past the end of his shift to refill the coffee! Our room is always clean with fresh linens. Also, the recliners in the rooms are very nice. Thanks Extended Stay Galleria!</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r319302336-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319302336</t>
+  </si>
+  <si>
+    <t>10/16/2015</t>
+  </si>
+  <si>
+    <t>Good &amp; Pleasant Stay</t>
+  </si>
+  <si>
+    <t>I was in this Hotel during the fall period and totally it was good.I personally like the Hotel to make my own food which this hotel got the kitchen things and is good place near to galleria mall and it is big plus.I appreciate the Help Desk Team which they were friendly and very helpful, if I can remember some name correctly to tell, Moazzam, Sheenan and others.Cheers.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r317883743-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317883743</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Business Trips to Houston</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel very frequently since last 3 months. Mr. Moazzam has been very cooperative every time. He is definitely an asset to ESA chain. I highly recommend him for higher position with ESA. He is really gentle, soft spoken and very very courteous. I would always love to come back and stay here. Feel free and enjoy your free breakfast and other items you forget to bring.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r311390046-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>311390046</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Bed, bugs and beyond.  3 months lousy stay</t>
+  </si>
+  <si>
+    <t>I stayed at extended stay in Houston Galleria 2300 West loop south from the first week of June 2015 until end of August. It was an OK stay until one night I noticed two bed bugs on the top white sheet. When I lifted the bed sheet, I found at least eight more of them. I took few pictures of the bugs. I went to the front desk employee and told him the story. They transferred me to an upgraded room for the same rate. Rooms were very noisy. I was preparing for an important medical exam and could not concentrate while studying. I could not move to another hotel because of time constraints. It was a very bad experience; I had to get rid of most of my clothes and other belongings. Management's handling of the situation was very insulting and unprofessional. It was a big distraction. Before you go to bed watch out for those ugly creatures. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I stayed at extended stay in Houston Galleria 2300 West loop south from the first week of June 2015 until end of August. It was an OK stay until one night I noticed two bed bugs on the top white sheet. When I lifted the bed sheet, I found at least eight more of them. I took few pictures of the bugs. I went to the front desk employee and told him the story. They transferred me to an upgraded room for the same rate. Rooms were very noisy. I was preparing for an important medical exam and could not concentrate while studying. I could not move to another hotel because of time constraints. It was a very bad experience; I had to get rid of most of my clothes and other belongings. Management's handling of the situation was very insulting and unprofessional. It was a big distraction. Before you go to bed watch out for those ugly creatures. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r294837570-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294837570</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Dirty, Dirty, Dirty</t>
+  </si>
+  <si>
+    <t>Out of all of the hotels I have stayed at in the world, I can only think of one that has been dirtier.  We arrived very late, and the first room we were given had an overpowering smell of vomit.  There were some type of linens soaking in the sink, and the mattresses had been stripped and stood against the walls.  I returned to talk to the front desk clerk, and he quickly started looking for another room.  The next room he found for us had a funky smell but was better.  
+He was kind enough to call the room to make sure it was OK.  At this point I noticed a thick layer of grim around the phone receiver.  The bathroom was barely cleaned and there were still hairs around the toilet seat.  The bathroom also had ants around the toilet and sink, and we were on the second floor.
+The bed linens were very thin and old.  It looks like they tried a remodeling of the hotel awhile back but on the cheap.  They painted over the counters and shower.  Otherwise, maintenance seems to have been neglected.  The windows did not appear to lock well, and someone microwaved something they should not have and burnt a hole in the microwave door, but it was not replaced.
+The only saving grace for this hotel was the hospitality of the night clerk, Guy.  The rest of the staff was not...Out of all of the hotels I have stayed at in the world, I can only think of one that has been dirtier.  We arrived very late, and the first room we were given had an overpowering smell of vomit.  There were some type of linens soaking in the sink, and the mattresses had been stripped and stood against the walls.  I returned to talk to the front desk clerk, and he quickly started looking for another room.  The next room he found for us had a funky smell but was better.  He was kind enough to call the room to make sure it was OK.  At this point I noticed a thick layer of grim around the phone receiver.  The bathroom was barely cleaned and there were still hairs around the toilet seat.  The bathroom also had ants around the toilet and sink, and we were on the second floor.The bed linens were very thin and old.  It looks like they tried a remodeling of the hotel awhile back but on the cheap.  They painted over the counters and shower.  Otherwise, maintenance seems to have been neglected.  The windows did not appear to lock well, and someone microwaved something they should not have and burnt a hole in the microwave door, but it was not replaced.The only saving grace for this hotel was the hospitality of the night clerk, Guy.  The rest of the staff was not very friendly.  I would recommend looking for a different hotel in the area and avoid Extended Stay America.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Out of all of the hotels I have stayed at in the world, I can only think of one that has been dirtier.  We arrived very late, and the first room we were given had an overpowering smell of vomit.  There were some type of linens soaking in the sink, and the mattresses had been stripped and stood against the walls.  I returned to talk to the front desk clerk, and he quickly started looking for another room.  The next room he found for us had a funky smell but was better.  
+He was kind enough to call the room to make sure it was OK.  At this point I noticed a thick layer of grim around the phone receiver.  The bathroom was barely cleaned and there were still hairs around the toilet seat.  The bathroom also had ants around the toilet and sink, and we were on the second floor.
+The bed linens were very thin and old.  It looks like they tried a remodeling of the hotel awhile back but on the cheap.  They painted over the counters and shower.  Otherwise, maintenance seems to have been neglected.  The windows did not appear to lock well, and someone microwaved something they should not have and burnt a hole in the microwave door, but it was not replaced.
+The only saving grace for this hotel was the hospitality of the night clerk, Guy.  The rest of the staff was not...Out of all of the hotels I have stayed at in the world, I can only think of one that has been dirtier.  We arrived very late, and the first room we were given had an overpowering smell of vomit.  There were some type of linens soaking in the sink, and the mattresses had been stripped and stood against the walls.  I returned to talk to the front desk clerk, and he quickly started looking for another room.  The next room he found for us had a funky smell but was better.  He was kind enough to call the room to make sure it was OK.  At this point I noticed a thick layer of grim around the phone receiver.  The bathroom was barely cleaned and there were still hairs around the toilet seat.  The bathroom also had ants around the toilet and sink, and we were on the second floor.The bed linens were very thin and old.  It looks like they tried a remodeling of the hotel awhile back but on the cheap.  They painted over the counters and shower.  Otherwise, maintenance seems to have been neglected.  The windows did not appear to lock well, and someone microwaved something they should not have and burnt a hole in the microwave door, but it was not replaced.The only saving grace for this hotel was the hospitality of the night clerk, Guy.  The rest of the staff was not very friendly.  I would recommend looking for a different hotel in the area and avoid Extended Stay America.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r286881092-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286881092</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Worse hotel ever</t>
+  </si>
+  <si>
+    <t>Our stay at the Extended Stay America on Westheimer was the worst stay at a hotel ever!  There were a number of issues that we faced but I will highlight only the worst.  After one night at the hotel, we smelled cigarette smoke coming into our room.  After looking around inside and outside the hotel I noticed that the smoking that was going on in a room near our room.  I complained to the front next staff member and it stopped for that night; however, it resumed the following night.  I again complained to the front desk but it took a call from the American Cancer Society to get the smoking to cease.  This was supposed to be a non-smoking hotel that the American Cancer Society provides to cancer patients.  am writing there are several other events that make this hotel unfit for 
+cancer patients. 
+First, late one evening a customer caught his microwave on fire as he was cooking popcorn.  The Fire alarm sounded and we evacuated the hotel.  It was late at night and cold and damp outside - not conditions that my husband could endure for long. 
+Second,  there were bumping sounds coming from the utility closet near our room several evenings but when I complained, the staff member never went to check it out.  These annoying noises occur periodically and at times seem as though someone is drilling into the wall. It could be some machinery...Our stay at the Extended Stay America on Westheimer was the worst stay at a hotel ever!  There were a number of issues that we faced but I will highlight only the worst.  After one night at the hotel, we smelled cigarette smoke coming into our room.  After looking around inside and outside the hotel I noticed that the smoking that was going on in a room near our room.  I complained to the front next staff member and it stopped for that night; however, it resumed the following night.  I again complained to the front desk but it took a call from the American Cancer Society to get the smoking to cease.  This was supposed to be a non-smoking hotel that the American Cancer Society provides to cancer patients.  am writing there are several other events that make this hotel unfit for cancer patients.  First, late one evening a customer caught his microwave on fire as he was cooking popcorn.  The Fire alarm sounded and we evacuated the hotel.  It was late at night and cold and damp outside - not conditions that my husband could endure for long.  Second,  there were bumping sounds coming from the utility closet near our room several evenings but when I complained, the staff member never went to check it out.  These annoying noises occur periodically and at times seem as though someone is drilling into the wall. It could be some machinery like a heating unit that needs servicing.  Finally, early Saturday morning men broke into our SUV around 3:30 a.m. and stole my husband's tools. Evidentally, the thieves broke into at least one other vehicle smashing the window.  This vehicle was parked right outside the main entrance to the hotel lobby and the staff on duty didn't appear to see or hear a thing.  We were fortunate that all they did was jimmy the passenger door lock to get into our vehicle.  They appeared to know exactly what they wanted from the vehicle.  Another guest who looked out his window saw at least one man and the make and color of the vehicle of the perpetrators.  The police did respond to the incident and the guy who witnessed the breakins gave them a statement.  There is also a hotel video that the police viewed.  Never have we been subjected to so much trouble in all our travels around the country and the world.  We appreciate the fact that the American Cancer Society provided us complimentary lodging for this round of chemotherapy but in retrospect we would have gladly paid for a hotel closer to the medical center and away from this undesirable location and hotel.  As you can imagine, we will never stay here again and I will certainly share our story with friends, family and fellow cancer patients.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Our stay at the Extended Stay America on Westheimer was the worst stay at a hotel ever!  There were a number of issues that we faced but I will highlight only the worst.  After one night at the hotel, we smelled cigarette smoke coming into our room.  After looking around inside and outside the hotel I noticed that the smoking that was going on in a room near our room.  I complained to the front next staff member and it stopped for that night; however, it resumed the following night.  I again complained to the front desk but it took a call from the American Cancer Society to get the smoking to cease.  This was supposed to be a non-smoking hotel that the American Cancer Society provides to cancer patients.  am writing there are several other events that make this hotel unfit for 
+cancer patients. 
+First, late one evening a customer caught his microwave on fire as he was cooking popcorn.  The Fire alarm sounded and we evacuated the hotel.  It was late at night and cold and damp outside - not conditions that my husband could endure for long. 
+Second,  there were bumping sounds coming from the utility closet near our room several evenings but when I complained, the staff member never went to check it out.  These annoying noises occur periodically and at times seem as though someone is drilling into the wall. It could be some machinery...Our stay at the Extended Stay America on Westheimer was the worst stay at a hotel ever!  There were a number of issues that we faced but I will highlight only the worst.  After one night at the hotel, we smelled cigarette smoke coming into our room.  After looking around inside and outside the hotel I noticed that the smoking that was going on in a room near our room.  I complained to the front next staff member and it stopped for that night; however, it resumed the following night.  I again complained to the front desk but it took a call from the American Cancer Society to get the smoking to cease.  This was supposed to be a non-smoking hotel that the American Cancer Society provides to cancer patients.  am writing there are several other events that make this hotel unfit for cancer patients.  First, late one evening a customer caught his microwave on fire as he was cooking popcorn.  The Fire alarm sounded and we evacuated the hotel.  It was late at night and cold and damp outside - not conditions that my husband could endure for long.  Second,  there were bumping sounds coming from the utility closet near our room several evenings but when I complained, the staff member never went to check it out.  These annoying noises occur periodically and at times seem as though someone is drilling into the wall. It could be some machinery like a heating unit that needs servicing.  Finally, early Saturday morning men broke into our SUV around 3:30 a.m. and stole my husband's tools. Evidentally, the thieves broke into at least one other vehicle smashing the window.  This vehicle was parked right outside the main entrance to the hotel lobby and the staff on duty didn't appear to see or hear a thing.  We were fortunate that all they did was jimmy the passenger door lock to get into our vehicle.  They appeared to know exactly what they wanted from the vehicle.  Another guest who looked out his window saw at least one man and the make and color of the vehicle of the perpetrators.  The police did respond to the incident and the guy who witnessed the breakins gave them a statement.  There is also a hotel video that the police viewed.  Never have we been subjected to so much trouble in all our travels around the country and the world.  We appreciate the fact that the American Cancer Society provided us complimentary lodging for this round of chemotherapy but in retrospect we would have gladly paid for a hotel closer to the medical center and away from this undesirable location and hotel.  As you can imagine, we will never stay here again and I will certainly share our story with friends, family and fellow cancer patients.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r275535370-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275535370</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Relaxing time</t>
+  </si>
+  <si>
+    <t>The hotel is located in a good area, facilities were great which included a good kitchen, ample parking space and nice staff.Overall good experience, I would stay here again if visiting Houston again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>The hotel is located in a good area, facilities were great which included a good kitchen, ample parking space and nice staff.Overall good experience, I would stay here again if visiting Houston again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r264507039-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264507039</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Nice staff. HORRIBLE BEDS!</t>
+  </si>
+  <si>
+    <t>For those staying with he American cancer Society, there is no shuttle to MD Anderson. With what you pay for taxis, you might as well stay on your own nearer the Medical Center.There is a stale smell to the rooms and the traffic is very noisy.The staff is kind and cordial. The only good thing.Beds are AWFUL! My back was out for days.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded April 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 20, 2015</t>
+  </si>
+  <si>
+    <t>For those staying with he American cancer Society, there is no shuttle to MD Anderson. With what you pay for taxis, you might as well stay on your own nearer the Medical Center.There is a stale smell to the rooms and the traffic is very noisy.The staff is kind and cordial. The only good thing.Beds are AWFUL! My back was out for days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r244341362-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244341362</t>
+  </si>
+  <si>
+    <t>12/13/2014</t>
+  </si>
+  <si>
+    <t>Disapponting</t>
+  </si>
+  <si>
+    <t>The front desk staff was unfriendly.The dirties place I have ever stayed in.The bathtube was full of hair when I checked in and this was not a problem to the staffThe only positive commend is the location of the hotel!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r237566976-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>237566976</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel twice and have received a good and friendly attention from the people, specially from Ms. Monique, the front desk office.She was always very helpful and kind, solving all problems presented.RegardsEdson Ayub</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r229712183-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229712183</t>
+  </si>
+  <si>
+    <t>09/18/2014</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check in was fast and pleasant.  This property is clean and quite.  The mall is within walking distance.  Rooms are clean. Just a place to stay. Will return.  This location is eazy on and off the freeway.  </t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r226058133-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>226058133</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Excellent and clean</t>
+  </si>
+  <si>
+    <t>I was in that hotel for the wedding of my daughter and the experience was excellent. Super quiet hotel and clean. Near to CVS, excellent restaurants, and to Galleria Mall. It is in the center of the city and accessible to taxis and buses.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>I was in that hotel for the wedding of my daughter and the experience was excellent. Super quiet hotel and clean. Near to CVS, excellent restaurants, and to Galleria Mall. It is in the center of the city and accessible to taxis and buses.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r219959211-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219959211</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>As the title says... I stayed at this hotel for 3 weeks. The hotel is very well located, walking distance to all nice restaurants, shopping areas, cafa's and Galleria. Rooms are comfortable, with a decent size living area with a full kitchen. Corridor are quiet, ample free parking. Beds I will give 6/10 as they were a bit hard. Overall 8/10.. It's worth the price. Hotel staff are very helpful and courteous. Reception is 24/7. Breakfast Grab &amp; Go is convinent for people on move, otherwise you have the kitchen in the room. Grocery store-Target is close by.. Special thanks to Ms.Courtney and Mr.Ryan for there help...</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r200314617-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200314617</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Good location and reasonably priced</t>
+  </si>
+  <si>
+    <t>There's not much to say about this place except that it was reasonably clean, well-located for getting around Houston, and easy-in easy-out off 610. The grab-and-go breakfast was barely that, in fact it was coffee or tea and some packaged muffins and breakfast bars. The room did have a kitchen area, however, so it was quite easy to make coffee and heat food up in the microwave. No complaints, no raves, but it was just right for our needs. Next door is a 24-hour CVS and across the street to the east a couple of block's is a really good steakhouse (Sullivan's). The Galleria shopping complex is less than a 10-minute walk west.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded April 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2014</t>
+  </si>
+  <si>
+    <t>There's not much to say about this place except that it was reasonably clean, well-located for getting around Houston, and easy-in easy-out off 610. The grab-and-go breakfast was barely that, in fact it was coffee or tea and some packaged muffins and breakfast bars. The room did have a kitchen area, however, so it was quite easy to make coffee and heat food up in the microwave. No complaints, no raves, but it was just right for our needs. Next door is a 24-hour CVS and across the street to the east a couple of block's is a really good steakhouse (Sullivan's). The Galleria shopping complex is less than a 10-minute walk west.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r198588454-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>198588454</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>Nice enough hotel needs some more renovations</t>
+  </si>
+  <si>
+    <t>We were staying 5 nights in Houston so decided on an Extended Stay. Location is good if you want shopping although the hotel is just off the interstate (can't hear traffic though). Nice staff and the hotel is fine but the website said the rooms were recently renovated. Wrong. Our kitchen cupboards were old and chipped while the toilet made a loud clunking noise when we flushed. The beds were comfy and queen sized which was great. All in all we would stay here again but I'd probably look around for something a bit better before I booked it next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded March 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2014</t>
+  </si>
+  <si>
+    <t>We were staying 5 nights in Houston so decided on an Extended Stay. Location is good if you want shopping although the hotel is just off the interstate (can't hear traffic though). Nice staff and the hotel is fine but the website said the rooms were recently renovated. Wrong. Our kitchen cupboards were old and chipped while the toilet made a loud clunking noise when we flushed. The beds were comfy and queen sized which was great. All in all we would stay here again but I'd probably look around for something a bit better before I booked it next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r196660376-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>196660376</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>Overcharging Consistently</t>
+  </si>
+  <si>
+    <t>I came to this hotel due to unfortunate circumstances and at first I thought it was good service and an understanding yet helpful staff, but that all changed once my stay resulted in long term. I was constantly overcharged and was not allowed to partake in a reasonable rate for a lengthy stay. I was charged for an outrageous amount when the site clearly posted differently. Management was notified but was drastically unhappy once I found out they just did not want to offer the correct rate even though I'm a suites reward member and even with me staying for a considerable amount of time. I have already sent corporate an email regarding this situation along with the folio and the rates from the times I was in question. I even had to deal with a maintenance issue that has yet to be resolved. To my dismay I would recommend you to pay for your stay ONLINE only and to be careful when dealing with the management at this location. It really is unfair at how I have been being charged above and beyond the rate when the site clearly says it will offer the lowest rate if found. Just beware and watch your credit card charges as they will charge you without giving you any knowledge of price increases.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded March 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2014</t>
+  </si>
+  <si>
+    <t>I came to this hotel due to unfortunate circumstances and at first I thought it was good service and an understanding yet helpful staff, but that all changed once my stay resulted in long term. I was constantly overcharged and was not allowed to partake in a reasonable rate for a lengthy stay. I was charged for an outrageous amount when the site clearly posted differently. Management was notified but was drastically unhappy once I found out they just did not want to offer the correct rate even though I'm a suites reward member and even with me staying for a considerable amount of time. I have already sent corporate an email regarding this situation along with the folio and the rates from the times I was in question. I even had to deal with a maintenance issue that has yet to be resolved. To my dismay I would recommend you to pay for your stay ONLINE only and to be careful when dealing with the management at this location. It really is unfair at how I have been being charged above and beyond the rate when the site clearly says it will offer the lowest rate if found. Just beware and watch your credit card charges as they will charge you without giving you any knowledge of price increases.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r190569843-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>190569843</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Best hotel I've stayed at in a awhile!</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located just a few blocks from the Galleria. Although it's on a busy street, it was nice and relaxing within the hotel. Housekeepers didn't bother me or make a nuisance in the morning. Every employee was extremely kind and welcoming. Overall, I enjoyed my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded January 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was conveniently located just a few blocks from the Galleria. Although it's on a busy street, it was nice and relaxing within the hotel. Housekeepers didn't bother me or make a nuisance in the morning. Every employee was extremely kind and welcoming. Overall, I enjoyed my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r188098097-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188098097</t>
+  </si>
+  <si>
+    <t>12/19/2013</t>
+  </si>
+  <si>
+    <t>Great Staff</t>
+  </si>
+  <si>
+    <t>The hotel is clean and recently upgraded. The facilities are nice but the main reason to stay here is the friendly and helpful staff. I stayed here when relocating to the area. The staff was very helpful to me. The location is good. Close to galleria mall. Lots of restaurants to walk to. They are upgrading the facilities but soon that should be complete and the rooms will be upgraded. I have stayed in several rooms and the front desk always accommodated any move I requested. They were always helpful if I had any request or issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded December 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2013</t>
+  </si>
+  <si>
+    <t>The hotel is clean and recently upgraded. The facilities are nice but the main reason to stay here is the friendly and helpful staff. I stayed here when relocating to the area. The staff was very helpful to me. The location is good. Close to galleria mall. Lots of restaurants to walk to. They are upgrading the facilities but soon that should be complete and the rooms will be upgraded. I have stayed in several rooms and the front desk always accommodated any move I requested. They were always helpful if I had any request or issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r187866322-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187866322</t>
+  </si>
+  <si>
+    <t>12/17/2013</t>
+  </si>
+  <si>
+    <t>Dont waste your money or time</t>
+  </si>
+  <si>
+    <t>Great location, but that's it.  The place is a dump.  They're renovating, but its just window dressing.  I haven't had a hot shower in 3 weeks.  Room temp at best.  Called the front desk 6 times and nothing was ever done.  Manager never called back once.  Construction went on in the room next to mine until after 8 quite a few nights.  No amenities at all.  No night staff.  I'm recommending all of our corporate folks coming in to spend the extra $20-$30 and go elsewhere nearby or somewhere off the 610.  I won't be back nor will ESH ever get another dime of my money.  Location doesn't make it worth the money.  SOME of the staff was friendly.  Others treated you like you weren't even there.  Manager clearly doesn't take pride in the place or their job.  Sad.  Travelers deserve better.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Great location, but that's it.  The place is a dump.  They're renovating, but its just window dressing.  I haven't had a hot shower in 3 weeks.  Room temp at best.  Called the front desk 6 times and nothing was ever done.  Manager never called back once.  Construction went on in the room next to mine until after 8 quite a few nights.  No amenities at all.  No night staff.  I'm recommending all of our corporate folks coming in to spend the extra $20-$30 and go elsewhere nearby or somewhere off the 610.  I won't be back nor will ESH ever get another dime of my money.  Location doesn't make it worth the money.  SOME of the staff was friendly.  Others treated you like you weren't even there.  Manager clearly doesn't take pride in the place or their job.  Sad.  Travelers deserve better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r183683210-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183683210</t>
+  </si>
+  <si>
+    <t>11/05/2013</t>
+  </si>
+  <si>
+    <t>Between poor and average</t>
+  </si>
+  <si>
+    <t>Having stayed here for three weeks and in three different rooms during my immigration process, I feel that I should relay the experience.
+First of all, the staff were very friendly and accommodating, and the location is pretty good - on Westheimer and close to the 610 and all the delights of the galleria. There's a grab and go breakfast which basically means coffee and a muffin or some fruit, which to me is fine.
+The rooms however, (and I wasn't expecting much) were a disappointment, very worn and sorry looking, there was a large TV with cable, some channels worked, some looked like they were half tuned, there was working but very noisy air con and the carpets looked like they were a hundred years old. Wifi was free, but very slow, unless you pay for an upgrade.
+The bathrooms were all very ugly, chips in the bath and sinks and no new towels, even though I asked - which astonished me - or toiletries, in fact, the water ran out twice while I was there and the toilet stopped working three times!
+There is a kitchenette which I never used although I did fill my fridge with drinks from the nearby CVS shop. 
+Towards the end of my second week I had to switch rooms (not the fault of the hotel) and I was put in a room which had just had it's carpets 'cleaned' and the floor...Having stayed here for three weeks and in three different rooms during my immigration process, I feel that I should relay the experience.First of all, the staff were very friendly and accommodating, and the location is pretty good - on Westheimer and close to the 610 and all the delights of the galleria. There's a grab and go breakfast which basically means coffee and a muffin or some fruit, which to me is fine.The rooms however, (and I wasn't expecting much) were a disappointment, very worn and sorry looking, there was a large TV with cable, some channels worked, some looked like they were half tuned, there was working but very noisy air con and the carpets looked like they were a hundred years old. Wifi was free, but very slow, unless you pay for an upgrade.The bathrooms were all very ugly, chips in the bath and sinks and no new towels, even though I asked - which astonished me - or toiletries, in fact, the water ran out twice while I was there and the toilet stopped working three times!There is a kitchenette which I never used although I did fill my fridge with drinks from the nearby CVS shop. Towards the end of my second week I had to switch rooms (not the fault of the hotel) and I was put in a room which had just had it's carpets 'cleaned' and the floor was wet and stank so I asked to move, which they obliged but to a room where the fascia had fallen off the power outlets, I don't think it was dangerous but I mentioned it to reception and nothing was done in the following week!Overall it was a good base for me as I was on my own, but I wouldn't stay there with a loved one.Would I stay there again? probably not now I know the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Having stayed here for three weeks and in three different rooms during my immigration process, I feel that I should relay the experience.
+First of all, the staff were very friendly and accommodating, and the location is pretty good - on Westheimer and close to the 610 and all the delights of the galleria. There's a grab and go breakfast which basically means coffee and a muffin or some fruit, which to me is fine.
+The rooms however, (and I wasn't expecting much) were a disappointment, very worn and sorry looking, there was a large TV with cable, some channels worked, some looked like they were half tuned, there was working but very noisy air con and the carpets looked like they were a hundred years old. Wifi was free, but very slow, unless you pay for an upgrade.
+The bathrooms were all very ugly, chips in the bath and sinks and no new towels, even though I asked - which astonished me - or toiletries, in fact, the water ran out twice while I was there and the toilet stopped working three times!
+There is a kitchenette which I never used although I did fill my fridge with drinks from the nearby CVS shop. 
+Towards the end of my second week I had to switch rooms (not the fault of the hotel) and I was put in a room which had just had it's carpets 'cleaned' and the floor...Having stayed here for three weeks and in three different rooms during my immigration process, I feel that I should relay the experience.First of all, the staff were very friendly and accommodating, and the location is pretty good - on Westheimer and close to the 610 and all the delights of the galleria. There's a grab and go breakfast which basically means coffee and a muffin or some fruit, which to me is fine.The rooms however, (and I wasn't expecting much) were a disappointment, very worn and sorry looking, there was a large TV with cable, some channels worked, some looked like they were half tuned, there was working but very noisy air con and the carpets looked like they were a hundred years old. Wifi was free, but very slow, unless you pay for an upgrade.The bathrooms were all very ugly, chips in the bath and sinks and no new towels, even though I asked - which astonished me - or toiletries, in fact, the water ran out twice while I was there and the toilet stopped working three times!There is a kitchenette which I never used although I did fill my fridge with drinks from the nearby CVS shop. Towards the end of my second week I had to switch rooms (not the fault of the hotel) and I was put in a room which had just had it's carpets 'cleaned' and the floor was wet and stank so I asked to move, which they obliged but to a room where the fascia had fallen off the power outlets, I don't think it was dangerous but I mentioned it to reception and nothing was done in the following week!Overall it was a good base for me as I was on my own, but I wouldn't stay there with a loved one.Would I stay there again? probably not now I know the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r181858292-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>181858292</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Spend the extra $10 and go across the street</t>
+  </si>
+  <si>
+    <t>I went here because I needed a place for at least a week and I had low expectations on such short notice.  The ESA couldn't even meet those low expectations.  The hallway constantly had a bad smell, be it garbage or marijuana, and getting fresh linens was like pulling teeth.  I called to make sure they had fresh sheets and was told they didn't have towels.  That's not what I asked.  I really wish I would have sprung for the extra $10 and go to the Hotel Derek.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r180972998-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>180972998</t>
+  </si>
+  <si>
+    <t>10/14/2013</t>
+  </si>
+  <si>
+    <t>Terrible Place, good location!</t>
+  </si>
+  <si>
+    <t>Location is perfect, but that's about the only good thing I have to say about this place! The manager did not accommodate my needs for payment options--would not accept a school district issued check. Then, they did not have my reservation correct, and had to give me an additional room in order to have enough beds for my party--another inconvenience! Finally get up to the room, and the shower is not working--call down to the office to help and I am told that it will not be until the morning when a maintenance man would be able to come check it! Ridiculous! Also overheard another guest complaining that they were without water for the majority of the day--and made the comment "welcome to hell". If you have to stay in this area, this option is OK, but if you want a nice place to stay pick somewhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded October 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2013</t>
+  </si>
+  <si>
+    <t>Location is perfect, but that's about the only good thing I have to say about this place! The manager did not accommodate my needs for payment options--would not accept a school district issued check. Then, they did not have my reservation correct, and had to give me an additional room in order to have enough beds for my party--another inconvenience! Finally get up to the room, and the shower is not working--call down to the office to help and I am told that it will not be until the morning when a maintenance man would be able to come check it! Ridiculous! Also overheard another guest complaining that they were without water for the majority of the day--and made the comment "welcome to hell". If you have to stay in this area, this option is OK, but if you want a nice place to stay pick somewhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r174828472-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>174828472</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>excellent customer service</t>
+  </si>
+  <si>
+    <t>definetely recommend this place..good area and all the staff is great and are helpful in everything needed... not to mention that Lily goes above and beyond her  front desk duties, and Hotel manager Tracy makes sure that everything is okay</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r171395350-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>171395350</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>If you like old poor quality hotels</t>
+  </si>
+  <si>
+    <t>This was not a great stay, better than a roach motel (No bugs seen here), but that's about it.  I smoke, but the horrible stench was worse than any smoking motel I have ever stayed!!!!!!The ft. desk guy gave me the "If you have reserved 2 nights and only stay one, you WILL pay for the second day anyway, that's the hotel policy"  and added "If you change your mind you wont get a room here"  RUDE !!! Policies are Policies, but the presentation was HoRrIbLe.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded August 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2013</t>
+  </si>
+  <si>
+    <t>This was not a great stay, better than a roach motel (No bugs seen here), but that's about it.  I smoke, but the horrible stench was worse than any smoking motel I have ever stayed!!!!!!The ft. desk guy gave me the "If you have reserved 2 nights and only stay one, you WILL pay for the second day anyway, that's the hotel policy"  and added "If you change your mind you wont get a room here"  RUDE !!! Policies are Policies, but the presentation was HoRrIbLe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r170849895-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>170849895</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>clean and comfortable-- very nice staff</t>
+  </si>
+  <si>
+    <t>I was very impressed with the staff--  very pleasant and helpful, even when I had to ask for the same favor over again after changing my mind.  Room was very clean and comfortable.  Blankets had a few cigarette burns in them, but the room did not smell of smoke at all.  Grab and go breakfast was convenient and surprisingly hearty.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded August 6, 2013</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2013</t>
+  </si>
+  <si>
+    <t>I was very impressed with the staff--  very pleasant and helpful, even when I had to ask for the same favor over again after changing my mind.  Room was very clean and comfortable.  Blankets had a few cigarette burns in them, but the room did not smell of smoke at all.  Grab and go breakfast was convenient and surprisingly hearty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r165499298-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>165499298</t>
+  </si>
+  <si>
+    <t>06/27/2013</t>
+  </si>
+  <si>
+    <t>BEST PLACE EVER</t>
+  </si>
+  <si>
+    <t>This would be my third time staying here and i have to say i love this place from Courtney and Tiffany to helping me pick my room nd helping me to suprise my boyfriend for his bday we r sure to come back soonMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded July 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2013</t>
+  </si>
+  <si>
+    <t>This would be my third time staying here and i have to say i love this place from Courtney and Tiffany to helping me pick my room nd helping me to suprise my boyfriend for his bday we r sure to come back soonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r163031711-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>163031711</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded June 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2013</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r162056201-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162056201</t>
+  </si>
+  <si>
+    <t>05/27/2013</t>
+  </si>
+  <si>
+    <t>Gerat Place for the Price</t>
+  </si>
+  <si>
+    <t>First off, this is not the Ritz, but it is a great place to stay.  The rooms are clean, and the staff does a great job of keeping them that way.  I have stayed here for 3 months, and find it to be an excellent choice for longer stays here in the Galleria area.  It is within walking distance of the Galleria, and several other shopping areas, and there is both a CVS and grocery store close.  The staff is very friendly, and will get to know you by name, say hi when you come in, and are always willing to help you out with anything you need.  My favorite staff member is Tiffany.  She is always smiling when I come in, and willing to help out when you forget your keys in your room!  Overall, I have enjoyed the three months I have spent here, and would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded May 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2013</t>
+  </si>
+  <si>
+    <t>First off, this is not the Ritz, but it is a great place to stay.  The rooms are clean, and the staff does a great job of keeping them that way.  I have stayed here for 3 months, and find it to be an excellent choice for longer stays here in the Galleria area.  It is within walking distance of the Galleria, and several other shopping areas, and there is both a CVS and grocery store close.  The staff is very friendly, and will get to know you by name, say hi when you come in, and are always willing to help you out with anything you need.  My favorite staff member is Tiffany.  She is always smiling when I come in, and willing to help out when you forget your keys in your room!  Overall, I have enjoyed the three months I have spent here, and would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r161371485-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>161371485</t>
+  </si>
+  <si>
+    <t>05/21/2013</t>
+  </si>
+  <si>
+    <t>NEVER AGAIN !!!</t>
+  </si>
+  <si>
+    <t>This is the worse hotel we have ever styed in.The kitchen was dirty and inadequate. The fridge was so loud we could hardly sleep, the bathroom was so worn the cranes  leaked all the time.From the aircondition we noticed ants, and twice we had to kill some cockroaches.....disgusting.When we booked the hotel we asked if the double bed was big enough for two teenage boys and they confirmed it was, but for 10 days they hardley slept at all because of hard and narrow bed.They are surpose to cleen the room once a week, and the day they should cleen ours they came late afternoon to do the room and we had to sit outside the hotel and wait....alle other hotels they cleen the room in the morning.I will show all of you some pictures in a few days so you know what I mean.....waiting for my computer :)MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded May 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2013</t>
+  </si>
+  <si>
+    <t>This is the worse hotel we have ever styed in.The kitchen was dirty and inadequate. The fridge was so loud we could hardly sleep, the bathroom was so worn the cranes  leaked all the time.From the aircondition we noticed ants, and twice we had to kill some cockroaches.....disgusting.When we booked the hotel we asked if the double bed was big enough for two teenage boys and they confirmed it was, but for 10 days they hardley slept at all because of hard and narrow bed.They are surpose to cleen the room once a week, and the day they should cleen ours they came late afternoon to do the room and we had to sit outside the hotel and wait....alle other hotels they cleen the room in the morning.I will show all of you some pictures in a few days so you know what I mean.....waiting for my computer :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r160276570-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160276570</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>NICE HOUSTON TX LOCATION</t>
+  </si>
+  <si>
+    <t>Good value for money and very homely. The location is right close to the Galleria and the other high class hotels.The hotel is ideal for a business trip to Houston. The wifi works perfectly, the rooms are clean but you will miss on the staff as they are virtually invisible. I have been staying at this hotel every April/May when I am in Houston Tx for the OTC nad have not really had a major issue with y stays - its come  easy - go easyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Good value for money and very homely. The location is right close to the Galleria and the other high class hotels.The hotel is ideal for a business trip to Houston. The wifi works perfectly, the rooms are clean but you will miss on the staff as they are virtually invisible. I have been staying at this hotel every April/May when I am in Houston Tx for the OTC nad have not really had a major issue with y stays - its come  easy - go easyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r157646152-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157646152</t>
+  </si>
+  <si>
+    <t>04/13/2013</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
+  </si>
+  <si>
+    <t>The hotel is the perfect area of uptown, but the facility can use some serious updating.  The carpet is nasty and smells old.  I have experienced no hot water 2 days in a row, my co-worker had bugs, and now items have been stolen from the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded April 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2013</t>
+  </si>
+  <si>
+    <t>The hotel is the perfect area of uptown, but the facility can use some serious updating.  The carpet is nasty and smells old.  I have experienced no hot water 2 days in a row, my co-worker had bugs, and now items have been stolen from the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r156547093-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156547093</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>Seriously, no hot water?</t>
+  </si>
+  <si>
+    <t>Ive been here for 2 months and will be here for another while on business. The company I work for has me here in this hotel. In the 60 days I've been here, they have run out of hot water twice. And not for just an hour or so; try 2 days at a time. I wake up at 7am every day and am out the door and at work by 8-8:15am. I meet with clients and am in meetings constantly. It doesn't look good when I show up 2 days in a row not having showered and looking terrible. This is not acceptable at all. The only thing that redeems this hotel is their front desk employees. Maria, Danielle, and Courtney are amazing and very personable. They might be the only thing that holds this hotel together. My room smells sour and it's coming from the AC unit (good thing they cleaned them out this week). Also my upstairs neighbor legit is up all night banging around like an elephant. Seriously, I don't know what they are doing but it's obnoxious and literally wakes me up every night between 2-4am. They slam drawers shut, slam cabinet doors shut, and it sounds like they literally are jumping off the bed onto the floor over and over again. If you stay here pack a set of earplugs because this place is not quiet. Obviously I'm a little peeved because the hot...Ive been here for 2 months and will be here for another while on business. The company I work for has me here in this hotel. In the 60 days I've been here, they have run out of hot water twice. And not for just an hour or so; try 2 days at a time. I wake up at 7am every day and am out the door and at work by 8-8:15am. I meet with clients and am in meetings constantly. It doesn't look good when I show up 2 days in a row not having showered and looking terrible. This is not acceptable at all. The only thing that redeems this hotel is their front desk employees. Maria, Danielle, and Courtney are amazing and very personable. They might be the only thing that holds this hotel together. My room smells sour and it's coming from the AC unit (good thing they cleaned them out this week). Also my upstairs neighbor legit is up all night banging around like an elephant. Seriously, I don't know what they are doing but it's obnoxious and literally wakes me up every night between 2-4am. They slam drawers shut, slam cabinet doors shut, and it sounds like they literally are jumping off the bed onto the floor over and over again. If you stay here pack a set of earplugs because this place is not quiet. Obviously I'm a little peeved because the hot water is out but that's my two cents.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2013</t>
+  </si>
+  <si>
+    <t>Ive been here for 2 months and will be here for another while on business. The company I work for has me here in this hotel. In the 60 days I've been here, they have run out of hot water twice. And not for just an hour or so; try 2 days at a time. I wake up at 7am every day and am out the door and at work by 8-8:15am. I meet with clients and am in meetings constantly. It doesn't look good when I show up 2 days in a row not having showered and looking terrible. This is not acceptable at all. The only thing that redeems this hotel is their front desk employees. Maria, Danielle, and Courtney are amazing and very personable. They might be the only thing that holds this hotel together. My room smells sour and it's coming from the AC unit (good thing they cleaned them out this week). Also my upstairs neighbor legit is up all night banging around like an elephant. Seriously, I don't know what they are doing but it's obnoxious and literally wakes me up every night between 2-4am. They slam drawers shut, slam cabinet doors shut, and it sounds like they literally are jumping off the bed onto the floor over and over again. If you stay here pack a set of earplugs because this place is not quiet. Obviously I'm a little peeved because the hot...Ive been here for 2 months and will be here for another while on business. The company I work for has me here in this hotel. In the 60 days I've been here, they have run out of hot water twice. And not for just an hour or so; try 2 days at a time. I wake up at 7am every day and am out the door and at work by 8-8:15am. I meet with clients and am in meetings constantly. It doesn't look good when I show up 2 days in a row not having showered and looking terrible. This is not acceptable at all. The only thing that redeems this hotel is their front desk employees. Maria, Danielle, and Courtney are amazing and very personable. They might be the only thing that holds this hotel together. My room smells sour and it's coming from the AC unit (good thing they cleaned them out this week). Also my upstairs neighbor legit is up all night banging around like an elephant. Seriously, I don't know what they are doing but it's obnoxious and literally wakes me up every night between 2-4am. They slam drawers shut, slam cabinet doors shut, and it sounds like they literally are jumping off the bed onto the floor over and over again. If you stay here pack a set of earplugs because this place is not quiet. Obviously I'm a little peeved because the hot water is out but that's my two cents.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r153158620-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153158620</t>
+  </si>
+  <si>
+    <t>02/25/2013</t>
+  </si>
+  <si>
+    <t>Don't bother confirming your stay - they will drop you anyway</t>
+  </si>
+  <si>
+    <t>Needed to stay one night at this location because of a business meeting across the street on the next morning.  Knowing that I would be taking the late flight from Dallas to Houston and arriving at the hotel after 11:30pm I had my secretary to call in person to confirm my room and make a note to hold it.  Extended Stay said "no problem".  Upon arriving at near mid-night they had switched me to another Extended Stay location - what???MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Needed to stay one night at this location because of a business meeting across the street on the next morning.  Knowing that I would be taking the late flight from Dallas to Houston and arriving at the hotel after 11:30pm I had my secretary to call in person to confirm my room and make a note to hold it.  Extended Stay said "no problem".  Upon arriving at near mid-night they had switched me to another Extended Stay location - what???More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r153039641-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>153039641</t>
+  </si>
+  <si>
+    <t>Nice stay Great Service</t>
+  </si>
+  <si>
+    <t>I work throughout the US and stay at many different places.  This Place has the best service by far of any other place(s) I have stayed.  It was nice to come back to the hotel and have a friendly smile and genuinely nice people.  I seemed to run into Tiffany every night and always got a big smile and how was your day!  I don't remember any of the other staffs names but all were very nice too. The room was nice but my only complaint would be the burners on the range didn't work like mine at home so I had to learn how to cook again.  If I'm back in this area I will absolutely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I work throughout the US and stay at many different places.  This Place has the best service by far of any other place(s) I have stayed.  It was nice to come back to the hotel and have a friendly smile and genuinely nice people.  I seemed to run into Tiffany every night and always got a big smile and how was your day!  I don't remember any of the other staffs names but all were very nice too. The room was nice but my only complaint would be the burners on the range didn't work like mine at home so I had to learn how to cook again.  If I'm back in this area I will absolutely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r152208911-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152208911</t>
+  </si>
+  <si>
+    <t>02/15/2013</t>
+  </si>
+  <si>
+    <t>Out Standing Service</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel 2-3 times a year for 5 yrs now. The reason I keep coming back to this hotel is the excellent service the hotel staff provide from Maria the cleaning lady to Tracy, the hotel manager, and Courtney, Maria, and Tiffany, the front desk staff. They will go beyond the call of duty to accommodate guests' needs. They are very professional and courteous.The furniture in the room is out dated but Extended Stay hotels around the country have been renovating their hotels.The bed is very comfortable.I love the grab and go breakfast that they have.I just wish that Extended Stay America has a loyalty program like other hotel chains that recognizes their loyal guests by upgrading their room when it's available or at least giving them the best room available. I stay at the Extended Stay America around the country a lot in a year. Most of the time, I get a "leftover" room;even though, I have called ahead to reserve a good room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded February 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2013</t>
+  </si>
+  <si>
+    <t>I have been staying at this hotel 2-3 times a year for 5 yrs now. The reason I keep coming back to this hotel is the excellent service the hotel staff provide from Maria the cleaning lady to Tracy, the hotel manager, and Courtney, Maria, and Tiffany, the front desk staff. They will go beyond the call of duty to accommodate guests' needs. They are very professional and courteous.The furniture in the room is out dated but Extended Stay hotels around the country have been renovating their hotels.The bed is very comfortable.I love the grab and go breakfast that they have.I just wish that Extended Stay America has a loyalty program like other hotel chains that recognizes their loyal guests by upgrading their room when it's available or at least giving them the best room available. I stay at the Extended Stay America around the country a lot in a year. Most of the time, I get a "leftover" room;even though, I have called ahead to reserve a good room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r151056077-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151056077</t>
+  </si>
+  <si>
+    <t>01/30/2013</t>
+  </si>
+  <si>
+    <t>Just like Family !!!</t>
+  </si>
+  <si>
+    <t>I recently traveled a very long distance to Houston TX to take a travel assignment and had never been to the area ..I was tired and anxious and had no idea what to expect .. I was very pleasantly surprised with the hotel which I will be staying for 10 weeks and also the Staff .... Marie, Courtney,Tiffany and Tracy have been amazing and have become just like family.... they are always smiling and ready to help .... they even helped me with WiFi on my computer .... directions and questions .... whatever I need .... the housekeeping staff is also exceptional ... I have 2 dogs so they just supply me with what I need and also are always smiling and seem to enjoy what they do .... a special thank you to Siham,Salima, Maria and Dina and last but not least the maintanence person Elser.... it is so nice to have a man around when things don't work quite right and he always seems to know how to fix them ....  I recommend Extended Stay America in Galleria to anyone who wants a great place to stay at a fair price and you even get good coffee in morning .... :)  all with a smile !MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded January 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2013</t>
+  </si>
+  <si>
+    <t>I recently traveled a very long distance to Houston TX to take a travel assignment and had never been to the area ..I was tired and anxious and had no idea what to expect .. I was very pleasantly surprised with the hotel which I will be staying for 10 weeks and also the Staff .... Marie, Courtney,Tiffany and Tracy have been amazing and have become just like family.... they are always smiling and ready to help .... they even helped me with WiFi on my computer .... directions and questions .... whatever I need .... the housekeeping staff is also exceptional ... I have 2 dogs so they just supply me with what I need and also are always smiling and seem to enjoy what they do .... a special thank you to Siham,Salima, Maria and Dina and last but not least the maintanence person Elser.... it is so nice to have a man around when things don't work quite right and he always seems to know how to fix them ....  I recommend Extended Stay America in Galleria to anyone who wants a great place to stay at a fair price and you even get good coffee in morning .... :)  all with a smile !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r150895494-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150895494</t>
+  </si>
+  <si>
+    <t>01/28/2013</t>
+  </si>
+  <si>
+    <t>Excellent Front Desk Service</t>
+  </si>
+  <si>
+    <t>I spent two consecutive months at this location. Rooms were clean, comfortable and spacious. Location is perfect. The front desk service is outstanding especially Tiffany! She takes her time with every customer and truly does her best to help everyone. Definitely a great experience. If I return again, this will be the first place I call!MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded January 29, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2013</t>
+  </si>
+  <si>
+    <t>I spent two consecutive months at this location. Rooms were clean, comfortable and spacious. Location is perfect. The front desk service is outstanding especially Tiffany! She takes her time with every customer and truly does her best to help everyone. Definitely a great experience. If I return again, this will be the first place I call!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r148228389-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>148228389</t>
+  </si>
+  <si>
+    <t>12/28/2012</t>
+  </si>
+  <si>
+    <t>Right on time.</t>
+  </si>
+  <si>
+    <t>I had to stay at the hotel due to a power outage at my apartment. I arrived at the hotel very late in the night. The lady at the desk was very understanding, checked me in without a problem and also accommendated my pet for a fee.  They can have more of a choice on breakfast.This will be my go to hotel for now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded December 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2012</t>
+  </si>
+  <si>
+    <t>I had to stay at the hotel due to a power outage at my apartment. I arrived at the hotel very late in the night. The lady at the desk was very understanding, checked me in without a problem and also accommendated my pet for a fee.  They can have more of a choice on breakfast.This will be my go to hotel for now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r145879463-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145879463</t>
+  </si>
+  <si>
+    <t>11/21/2012</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>I stayed in this Extended Stay for 2 weeks and found that the service was below average compared to the other Extended Stay properties that I have stayed. The room I stayed was Queen-size. When I checked in, I found that the shower tap was jammed. It took over 3 days for them to fix it. After fixing, it started leaking hot water filling the bathroom with steam.This was not fixed even even after a week. There were a few utensils that were usable but one of them had a loose handle and it came off when I held it. The bread toaster was broken and was never replaced for my entire stay. While the rates charged by the hotel are reasonable, the service leaves a lot to be desired. I will not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded November 26, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 26, 2012</t>
+  </si>
+  <si>
+    <t>I stayed in this Extended Stay for 2 weeks and found that the service was below average compared to the other Extended Stay properties that I have stayed. The room I stayed was Queen-size. When I checked in, I found that the shower tap was jammed. It took over 3 days for them to fix it. After fixing, it started leaking hot water filling the bathroom with steam.This was not fixed even even after a week. There were a few utensils that were usable but one of them had a loose handle and it came off when I held it. The bread toaster was broken and was never replaced for my entire stay. While the rates charged by the hotel are reasonable, the service leaves a lot to be desired. I will not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r144118287-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>144118287</t>
+  </si>
+  <si>
+    <t>10/30/2012</t>
+  </si>
+  <si>
+    <t>Just awful!</t>
+  </si>
+  <si>
+    <t>Stranded in TX from Hurricane Sandy, we booked this room through hotels.com...Arrived here two hours ago...they gave away our room so had to put us in a room with one bed and a pull out couch...we reserved two queens....figuring we could make it work we took the room.  Walked into the room and it smelled SO STRONG of room deodorizer that it burned our noses (no exaggeration)...AC wouldn't work and couldnt reach front desk because the room phone didn't work either!!!!   Wanted to open the window to air the room out and they had a screen in the window that didn't fit... there was a big open gap!   No shampoo as the front desk said the hotel ran out...notnsure what else could possibly go wrong...opened up the couch to make the bed and there was a dirty kids sneaker it...I wish I could say this review was a joke but every bit of it is absolutely true! I travel a lot and do not ever complain or write a negative review...but I just had to share.  Hotels.com would do nothing to help...I am just in complete disbelief!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded November 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2012</t>
+  </si>
+  <si>
+    <t>Stranded in TX from Hurricane Sandy, we booked this room through hotels.com...Arrived here two hours ago...they gave away our room so had to put us in a room with one bed and a pull out couch...we reserved two queens....figuring we could make it work we took the room.  Walked into the room and it smelled SO STRONG of room deodorizer that it burned our noses (no exaggeration)...AC wouldn't work and couldnt reach front desk because the room phone didn't work either!!!!   Wanted to open the window to air the room out and they had a screen in the window that didn't fit... there was a big open gap!   No shampoo as the front desk said the hotel ran out...notnsure what else could possibly go wrong...opened up the couch to make the bed and there was a dirty kids sneaker it...I wish I could say this review was a joke but every bit of it is absolutely true! I travel a lot and do not ever complain or write a negative review...but I just had to share.  Hotels.com would do nothing to help...I am just in complete disbelief!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r141296913-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>141296913</t>
+  </si>
+  <si>
+    <t>09/25/2012</t>
+  </si>
+  <si>
+    <t>quite hotel</t>
+  </si>
+  <si>
+    <t>if you have a busniess trip and you don't need a room service and good price hotel with a nice location and close to the galleria that hotel what you need, free parking are available for you, the staff was helpfull i had an issue with the visa.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded September 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 27, 2012</t>
+  </si>
+  <si>
+    <t>if you have a busniess trip and you don't need a room service and good price hotel with a nice location and close to the galleria that hotel what you need, free parking are available for you, the staff was helpfull i had an issue with the visa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r140181097-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140181097</t>
+  </si>
+  <si>
+    <t>09/13/2012</t>
+  </si>
+  <si>
+    <t>Management and all staff are simply amazing people who really care.</t>
+  </si>
+  <si>
+    <t>Relocation is hard enough without all the"bumps" you hit along the road. I had been at extended stay almost a week when I got sick and could hardly hold my head up.The staff and management helped me and made sure I was comfortable and solved a minor issue for me with no fuss only smiles! They truly went above and beyond! (Thanks Tracy and Maria,you're the greatest)  I couldn't have stayed anywhere that felt more like Home!                   So if you're coming to                       Houston Tx.      Extended Stay America is where you wanna make your home away from home.                         Sincerely,NicoleMoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded September 21, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2012</t>
+  </si>
+  <si>
+    <t>Relocation is hard enough without all the"bumps" you hit along the road. I had been at extended stay almost a week when I got sick and could hardly hold my head up.The staff and management helped me and made sure I was comfortable and solved a minor issue for me with no fuss only smiles! They truly went above and beyond! (Thanks Tracy and Maria,you're the greatest)  I couldn't have stayed anywhere that felt more like Home!                   So if you're coming to                       Houston Tx.      Extended Stay America is where you wanna make your home away from home.                         Sincerely,NicoleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r140164728-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>140164728</t>
+  </si>
+  <si>
+    <t>Real Jewel!!!!</t>
+  </si>
+  <si>
+    <t>I've been staying here for a month so far, and plan to stay until my home is complete. The location is great. Staff is awesome very responsive to my needs. Especially the manager Tracy and front desk girl Maria.The room is small compared to what I'm use to, but I love it. I recommend this place to everyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded September 14, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2012</t>
+  </si>
+  <si>
+    <t>I've been staying here for a month so far, and plan to stay until my home is complete. The location is great. Staff is awesome very responsive to my needs. Especially the manager Tracy and front desk girl Maria.The room is small compared to what I'm use to, but I love it. I recommend this place to everyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r128401265-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>128401265</t>
+  </si>
+  <si>
+    <t>04/23/2012</t>
+  </si>
+  <si>
+    <t>shame, $2.5k bill</t>
+  </si>
+  <si>
+    <t>great value, great staff..  HOWEVER, car got broken into at night in front of the hotel in the parking lot and cost me $2.5k. Management refunded me $250 of $500 bill. To little. Ruined my trip to Houston. Never again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2012</t>
+  </si>
+  <si>
+    <t>great value, great staff..  HOWEVER, car got broken into at night in front of the hotel in the parking lot and cost me $2.5k. Management refunded me $250 of $500 bill. To little. Ruined my trip to Houston. Never again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r126086997-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>126086997</t>
+  </si>
+  <si>
+    <t>03/14/2012</t>
+  </si>
+  <si>
+    <t>galleria</t>
+  </si>
+  <si>
+    <t>this place is a dump. our room was beyond dirty, my dogs are cleaner. I pulled the covers back on the bed to find a large amount of hair,so I called the front desk and asked if the bedding could be changed and was told I could come down and get  new bedding when I said that was not acceptable, she stated she would see what she could do about it. About 20 minutes later she arrived with a sheet and an attitude that was anything but pleasant.She stripped the bed down  throwing everything on the floor, changed the bottom she with another that had hair on it, She then picked up the blanket and pillows and walked out the door leaving the dirty sheet she took off the bed on the room floor. While waiting for a call from the manager, We discovered BLACK MOLD in the gasket of the freezer. We left and still haven't heard from the manager, "STAY AWAY FROM THIS PLACE ITS A HEALTH HAZARD.MoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Houston - Galleria - Westheimer, responded to this reviewResponded March 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2012</t>
+  </si>
+  <si>
+    <t>this place is a dump. our room was beyond dirty, my dogs are cleaner. I pulled the covers back on the bed to find a large amount of hair,so I called the front desk and asked if the bedding could be changed and was told I could come down and get  new bedding when I said that was not acceptable, she stated she would see what she could do about it. About 20 minutes later she arrived with a sheet and an attitude that was anything but pleasant.She stripped the bed down  throwing everything on the floor, changed the bottom she with another that had hair on it, She then picked up the blanket and pillows and walked out the door leaving the dirty sheet she took off the bed on the room floor. While waiting for a call from the manager, We discovered BLACK MOLD in the gasket of the freezer. We left and still haven't heard from the manager, "STAY AWAY FROM THIS PLACE ITS A HEALTH HAZARD.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r124966620-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>124966620</t>
+  </si>
+  <si>
+    <t>02/21/2012</t>
+  </si>
+  <si>
+    <t>Best value near Galleria</t>
+  </si>
+  <si>
+    <t>Room was clean, as expected from Extended Stay America.  While there are many choices in the area, by far this is a better value for the money as far as location and comfort are concerned.  Several restaurants and shopping close by.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107913-r21136271-Extended_Stay_America_Houston_Galleria_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>21136271</t>
+  </si>
+  <si>
+    <t>10/23/2008</t>
+  </si>
+  <si>
+    <t>Lousy service and accomodations</t>
+  </si>
+  <si>
+    <t>- wireless internet did not work - kept trying to connect, followed the directions.  Opened web browser, but no place to put in hotel password.- receptionist ignores phone while talking to friends - called receptionist around 6:30pm to get information about internet but she did not answer the phone.  So, I immediately went downstairs and found her sitting on 1 of 2 waiting area chairs talking to a friend who had come into the motel.- sink clogs easily even with just running water - while shaving or brushing my teeth, with just running the water, the sink clogged up- no daily housekeeping service - as advertised, but consider that they don't make the beds.  And they do not bring in new towels unless you go to the front desk and exchange them yourself.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2008</t>
+  </si>
+  <si>
+    <t>- wireless internet did not work - kept trying to connect, followed the directions.  Opened web browser, but no place to put in hotel password.- receptionist ignores phone while talking to friends - called receptionist around 6:30pm to get information about internet but she did not answer the phone.  So, I immediately went downstairs and found her sitting on 1 of 2 waiting area chairs talking to a friend who had come into the motel.- sink clogs easily even with just running water - while shaving or brushing my teeth, with just running the water, the sink clogged up- no daily housekeeping service - as advertised, but consider that they don't make the beds.  And they do not bring in new towels unless you go to the front desk and exchange them yourself.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2983,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +3015,6852 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>91</v>
+      </c>
+      <c r="X6" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>99</v>
+      </c>
+      <c r="X7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" t="s">
+        <v>106</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>108</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>113</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" t="s">
+        <v>116</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>121</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>123</v>
+      </c>
+      <c r="K10" t="s">
+        <v>124</v>
+      </c>
+      <c r="L10" t="s">
+        <v>125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>126</v>
+      </c>
+      <c r="X10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>130</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" t="s">
+        <v>133</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>134</v>
+      </c>
+      <c r="X11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>138</v>
+      </c>
+      <c r="J12" t="s">
+        <v>139</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>117</v>
+      </c>
+      <c r="O12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>143</v>
+      </c>
+      <c r="X12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+      <c r="K13" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" t="s">
+        <v>150</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>151</v>
+      </c>
+      <c r="X13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
+      <c r="K14" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" t="s">
+        <v>158</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>159</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>160</v>
+      </c>
+      <c r="X14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J15" t="s">
+        <v>165</v>
+      </c>
+      <c r="K15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>168</v>
+      </c>
+      <c r="X15" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>172</v>
+      </c>
+      <c r="J16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>176</v>
+      </c>
+      <c r="X16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17" t="s">
+        <v>183</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>184</v>
+      </c>
+      <c r="X17" t="s">
+        <v>185</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>187</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>188</v>
+      </c>
+      <c r="J18" t="s">
+        <v>189</v>
+      </c>
+      <c r="K18" t="s">
+        <v>190</v>
+      </c>
+      <c r="L18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>193</v>
+      </c>
+      <c r="X18" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>197</v>
+      </c>
+      <c r="J19" t="s">
+        <v>198</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" t="s">
+        <v>200</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>201</v>
+      </c>
+      <c r="X19" t="s">
+        <v>202</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>206</v>
+      </c>
+      <c r="K20" t="s">
+        <v>207</v>
+      </c>
+      <c r="L20" t="s">
+        <v>208</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>192</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>209</v>
+      </c>
+      <c r="X20" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>213</v>
+      </c>
+      <c r="J21" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" t="s">
+        <v>215</v>
+      </c>
+      <c r="L21" t="s">
+        <v>216</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>4</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>218</v>
+      </c>
+      <c r="X21" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>221</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" t="s">
+        <v>223</v>
+      </c>
+      <c r="K22" t="s">
+        <v>224</v>
+      </c>
+      <c r="L22" t="s">
+        <v>225</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" t="s">
+        <v>142</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>226</v>
+      </c>
+      <c r="X22" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>229</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>230</v>
+      </c>
+      <c r="J23" t="s">
+        <v>231</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>233</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>234</v>
+      </c>
+      <c r="X23" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>237</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>238</v>
+      </c>
+      <c r="J24" t="s">
+        <v>239</v>
+      </c>
+      <c r="K24" t="s">
+        <v>240</v>
+      </c>
+      <c r="L24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>246</v>
+      </c>
+      <c r="J25" t="s">
+        <v>247</v>
+      </c>
+      <c r="K25" t="s">
+        <v>248</v>
+      </c>
+      <c r="L25" t="s">
+        <v>249</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>217</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>250</v>
+      </c>
+      <c r="X25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>253</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>254</v>
+      </c>
+      <c r="J26" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" t="s">
+        <v>256</v>
+      </c>
+      <c r="L26" t="s">
+        <v>257</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>107</v>
+      </c>
+      <c r="O26" t="s">
+        <v>142</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>258</v>
+      </c>
+      <c r="X26" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>261</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>262</v>
+      </c>
+      <c r="J27" t="s">
+        <v>263</v>
+      </c>
+      <c r="K27" t="s">
+        <v>264</v>
+      </c>
+      <c r="L27" t="s">
+        <v>265</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>107</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>266</v>
+      </c>
+      <c r="X27" t="s">
+        <v>267</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>269</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>270</v>
+      </c>
+      <c r="J28" t="s">
+        <v>271</v>
+      </c>
+      <c r="K28" t="s">
+        <v>272</v>
+      </c>
+      <c r="L28" t="s">
+        <v>273</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>107</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>277</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>278</v>
+      </c>
+      <c r="J29" t="s">
+        <v>279</v>
+      </c>
+      <c r="K29" t="s">
+        <v>280</v>
+      </c>
+      <c r="L29" t="s">
+        <v>281</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>107</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>282</v>
+      </c>
+      <c r="X29" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>286</v>
+      </c>
+      <c r="J30" t="s">
+        <v>287</v>
+      </c>
+      <c r="K30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L30" t="s">
+        <v>289</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>107</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>4</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>290</v>
+      </c>
+      <c r="X30" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>293</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>294</v>
+      </c>
+      <c r="J31" t="s">
+        <v>295</v>
+      </c>
+      <c r="K31" t="s">
+        <v>296</v>
+      </c>
+      <c r="L31" t="s">
+        <v>297</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>107</v>
+      </c>
+      <c r="O31" t="s">
+        <v>142</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>298</v>
+      </c>
+      <c r="X31" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>301</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>302</v>
+      </c>
+      <c r="J32" t="s">
+        <v>303</v>
+      </c>
+      <c r="K32" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" t="s">
+        <v>305</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>107</v>
+      </c>
+      <c r="O32" t="s">
+        <v>142</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>2</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>306</v>
+      </c>
+      <c r="X32" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>309</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>310</v>
+      </c>
+      <c r="J33" t="s">
+        <v>311</v>
+      </c>
+      <c r="K33" t="s">
+        <v>312</v>
+      </c>
+      <c r="L33" t="s">
+        <v>313</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>314</v>
+      </c>
+      <c r="O33" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>315</v>
+      </c>
+      <c r="X33" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>318</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
+      </c>
+      <c r="J34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K34" t="s">
+        <v>321</v>
+      </c>
+      <c r="L34" t="s">
+        <v>322</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>314</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>323</v>
+      </c>
+      <c r="X34" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>327</v>
+      </c>
+      <c r="J35" t="s">
+        <v>328</v>
+      </c>
+      <c r="K35" t="s">
+        <v>329</v>
+      </c>
+      <c r="L35" t="s">
+        <v>330</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>331</v>
+      </c>
+      <c r="O35" t="s">
+        <v>82</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>332</v>
+      </c>
+      <c r="X35" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>336</v>
+      </c>
+      <c r="J36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K36" t="s">
+        <v>338</v>
+      </c>
+      <c r="L36" t="s">
+        <v>339</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>340</v>
+      </c>
+      <c r="O36" t="s">
+        <v>108</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>2</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>341</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>342</v>
+      </c>
+      <c r="J37" t="s">
+        <v>343</v>
+      </c>
+      <c r="K37" t="s">
+        <v>344</v>
+      </c>
+      <c r="L37" t="s">
+        <v>345</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>331</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K38" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s">
+        <v>351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>331</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>353</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>354</v>
+      </c>
+      <c r="J39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" t="s">
+        <v>356</v>
+      </c>
+      <c r="L39" t="s">
+        <v>357</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>358</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>359</v>
+      </c>
+      <c r="X39" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>362</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>363</v>
+      </c>
+      <c r="J40" t="s">
+        <v>364</v>
+      </c>
+      <c r="K40" t="s">
+        <v>365</v>
+      </c>
+      <c r="L40" t="s">
+        <v>366</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>358</v>
+      </c>
+      <c r="O40" t="s">
+        <v>108</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>368</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>369</v>
+      </c>
+      <c r="J41" t="s">
+        <v>370</v>
+      </c>
+      <c r="K41" t="s">
+        <v>371</v>
+      </c>
+      <c r="L41" t="s">
+        <v>372</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>373</v>
+      </c>
+      <c r="O41" t="s">
+        <v>108</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>374</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>375</v>
+      </c>
+      <c r="J42" t="s">
+        <v>376</v>
+      </c>
+      <c r="K42" t="s">
+        <v>377</v>
+      </c>
+      <c r="L42" t="s">
+        <v>378</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>379</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>380</v>
+      </c>
+      <c r="X42" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>383</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>384</v>
+      </c>
+      <c r="J43" t="s">
+        <v>376</v>
+      </c>
+      <c r="K43" t="s">
+        <v>385</v>
+      </c>
+      <c r="L43" t="s">
+        <v>386</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>379</v>
+      </c>
+      <c r="O43" t="s">
+        <v>108</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>380</v>
+      </c>
+      <c r="X43" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>376</v>
+      </c>
+      <c r="K44" t="s">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s">
+        <v>391</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>379</v>
+      </c>
+      <c r="O44" t="s">
+        <v>108</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>380</v>
+      </c>
+      <c r="X44" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>393</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>394</v>
+      </c>
+      <c r="J45" t="s">
+        <v>376</v>
+      </c>
+      <c r="K45" t="s">
+        <v>395</v>
+      </c>
+      <c r="L45" t="s">
+        <v>396</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>379</v>
+      </c>
+      <c r="O45" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>380</v>
+      </c>
+      <c r="X45" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>398</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>399</v>
+      </c>
+      <c r="J46" t="s">
+        <v>400</v>
+      </c>
+      <c r="K46" t="s">
+        <v>401</v>
+      </c>
+      <c r="L46" t="s">
+        <v>402</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>379</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>380</v>
+      </c>
+      <c r="X46" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>404</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>405</v>
+      </c>
+      <c r="J47" t="s">
+        <v>406</v>
+      </c>
+      <c r="K47" t="s">
+        <v>407</v>
+      </c>
+      <c r="L47" t="s">
+        <v>408</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" t="s">
+        <v>72</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>409</v>
+      </c>
+      <c r="X47" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>412</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>413</v>
+      </c>
+      <c r="J48" t="s">
+        <v>414</v>
+      </c>
+      <c r="K48" t="s">
+        <v>415</v>
+      </c>
+      <c r="L48" t="s">
+        <v>416</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>417</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>409</v>
+      </c>
+      <c r="X48" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>419</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>420</v>
+      </c>
+      <c r="J49" t="s">
+        <v>421</v>
+      </c>
+      <c r="K49" t="s">
+        <v>422</v>
+      </c>
+      <c r="L49" t="s">
+        <v>423</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>417</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>409</v>
+      </c>
+      <c r="X49" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>426</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>428</v>
+      </c>
+      <c r="L50" t="s">
+        <v>429</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>430</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>409</v>
+      </c>
+      <c r="X50" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>432</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>433</v>
+      </c>
+      <c r="J51" t="s">
+        <v>427</v>
+      </c>
+      <c r="K51" t="s">
+        <v>434</v>
+      </c>
+      <c r="L51" t="s">
+        <v>435</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>436</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>437</v>
+      </c>
+      <c r="X51" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>440</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>441</v>
+      </c>
+      <c r="J52" t="s">
+        <v>442</v>
+      </c>
+      <c r="K52" t="s">
+        <v>443</v>
+      </c>
+      <c r="L52" t="s">
+        <v>444</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>417</v>
+      </c>
+      <c r="O52" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>445</v>
+      </c>
+      <c r="X52" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>448</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>449</v>
+      </c>
+      <c r="J53" t="s">
+        <v>450</v>
+      </c>
+      <c r="K53" t="s">
+        <v>451</v>
+      </c>
+      <c r="L53" t="s">
+        <v>452</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>453</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>454</v>
+      </c>
+      <c r="X53" t="s">
+        <v>455</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>458</v>
+      </c>
+      <c r="J54" t="s">
+        <v>459</v>
+      </c>
+      <c r="K54" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" t="s">
+        <v>461</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>462</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>464</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>465</v>
+      </c>
+      <c r="J55" t="s">
+        <v>466</v>
+      </c>
+      <c r="K55" t="s">
+        <v>467</v>
+      </c>
+      <c r="L55" t="s">
+        <v>468</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>430</v>
+      </c>
+      <c r="O55" t="s">
+        <v>108</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>469</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>470</v>
+      </c>
+      <c r="J56" t="s">
+        <v>471</v>
+      </c>
+      <c r="K56" t="s">
+        <v>472</v>
+      </c>
+      <c r="L56" t="s">
+        <v>473</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>474</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>475</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>476</v>
+      </c>
+      <c r="J57" t="s">
+        <v>477</v>
+      </c>
+      <c r="K57" t="s">
+        <v>478</v>
+      </c>
+      <c r="L57" t="s">
+        <v>479</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>480</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>481</v>
+      </c>
+      <c r="J58" t="s">
+        <v>482</v>
+      </c>
+      <c r="K58" t="s">
+        <v>483</v>
+      </c>
+      <c r="L58" t="s">
+        <v>484</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>485</v>
+      </c>
+      <c r="O58" t="s">
+        <v>142</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>486</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>487</v>
+      </c>
+      <c r="J59" t="s">
+        <v>488</v>
+      </c>
+      <c r="K59" t="s">
+        <v>489</v>
+      </c>
+      <c r="L59" t="s">
+        <v>490</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>491</v>
+      </c>
+      <c r="O59" t="s">
+        <v>72</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>492</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>493</v>
+      </c>
+      <c r="J60" t="s">
+        <v>494</v>
+      </c>
+      <c r="K60" t="s">
+        <v>495</v>
+      </c>
+      <c r="L60" t="s">
+        <v>496</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>491</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>497</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>498</v>
+      </c>
+      <c r="J61" t="s">
+        <v>499</v>
+      </c>
+      <c r="K61" t="s">
+        <v>500</v>
+      </c>
+      <c r="L61" t="s">
+        <v>501</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>502</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>504</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>505</v>
+      </c>
+      <c r="J62" t="s">
+        <v>506</v>
+      </c>
+      <c r="K62" t="s">
+        <v>507</v>
+      </c>
+      <c r="L62" t="s">
+        <v>508</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>509</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>516</v>
+      </c>
+      <c r="X63" t="s">
+        <v>517</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>519</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>520</v>
+      </c>
+      <c r="J64" t="s">
+        <v>521</v>
+      </c>
+      <c r="K64" t="s">
+        <v>522</v>
+      </c>
+      <c r="L64" t="s">
+        <v>523</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>524</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>525</v>
+      </c>
+      <c r="X64" t="s">
+        <v>526</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>528</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>529</v>
+      </c>
+      <c r="J65" t="s">
+        <v>530</v>
+      </c>
+      <c r="K65" t="s">
+        <v>531</v>
+      </c>
+      <c r="L65" t="s">
+        <v>532</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>533</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>534</v>
+      </c>
+      <c r="X65" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>537</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>538</v>
+      </c>
+      <c r="J66" t="s">
+        <v>539</v>
+      </c>
+      <c r="K66" t="s">
+        <v>540</v>
+      </c>
+      <c r="L66" t="s">
+        <v>541</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>542</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>543</v>
+      </c>
+      <c r="J67" t="s">
+        <v>544</v>
+      </c>
+      <c r="K67" t="s">
+        <v>545</v>
+      </c>
+      <c r="L67" t="s">
+        <v>546</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>547</v>
+      </c>
+      <c r="O67" t="s">
+        <v>108</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>548</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>549</v>
+      </c>
+      <c r="J68" t="s">
+        <v>550</v>
+      </c>
+      <c r="K68" t="s">
+        <v>551</v>
+      </c>
+      <c r="L68" t="s">
+        <v>552</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>553</v>
+      </c>
+      <c r="O68" t="s">
+        <v>82</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>554</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>555</v>
+      </c>
+      <c r="J69" t="s">
+        <v>556</v>
+      </c>
+      <c r="K69" t="s">
+        <v>557</v>
+      </c>
+      <c r="L69" t="s">
+        <v>558</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>559</v>
+      </c>
+      <c r="O69" t="s">
+        <v>108</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
+      <c r="S69" t="s"/>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>560</v>
+      </c>
+      <c r="X69" t="s">
+        <v>561</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>563</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>564</v>
+      </c>
+      <c r="J70" t="s">
+        <v>565</v>
+      </c>
+      <c r="K70" t="s">
+        <v>566</v>
+      </c>
+      <c r="L70" t="s">
+        <v>567</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>568</v>
+      </c>
+      <c r="O70" t="s">
+        <v>108</v>
+      </c>
+      <c r="P70" t="s"/>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>569</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>570</v>
+      </c>
+      <c r="J71" t="s">
+        <v>571</v>
+      </c>
+      <c r="K71" t="s">
+        <v>572</v>
+      </c>
+      <c r="L71" t="s">
+        <v>573</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>574</v>
+      </c>
+      <c r="O71" t="s">
+        <v>142</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>575</v>
+      </c>
+      <c r="X71" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>578</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>579</v>
+      </c>
+      <c r="J72" t="s">
+        <v>580</v>
+      </c>
+      <c r="K72" t="s">
+        <v>581</v>
+      </c>
+      <c r="L72" t="s">
+        <v>582</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>583</v>
+      </c>
+      <c r="O72" t="s">
+        <v>108</v>
+      </c>
+      <c r="P72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>584</v>
+      </c>
+      <c r="X72" t="s">
+        <v>585</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>587</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>588</v>
+      </c>
+      <c r="J73" t="s">
+        <v>589</v>
+      </c>
+      <c r="K73" t="s">
+        <v>590</v>
+      </c>
+      <c r="L73" t="s">
+        <v>591</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>592</v>
+      </c>
+      <c r="X73" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>595</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>596</v>
+      </c>
+      <c r="J74" t="s">
+        <v>597</v>
+      </c>
+      <c r="K74" t="s">
+        <v>598</v>
+      </c>
+      <c r="L74" t="s">
+        <v>599</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>600</v>
+      </c>
+      <c r="X74" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>603</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>604</v>
+      </c>
+      <c r="J75" t="s">
+        <v>605</v>
+      </c>
+      <c r="K75" t="s">
+        <v>606</v>
+      </c>
+      <c r="L75" t="s">
+        <v>607</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>608</v>
+      </c>
+      <c r="O75" t="s">
+        <v>72</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>609</v>
+      </c>
+      <c r="X75" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>612</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>613</v>
+      </c>
+      <c r="J76" t="s">
+        <v>614</v>
+      </c>
+      <c r="K76" t="s">
+        <v>615</v>
+      </c>
+      <c r="L76" t="s">
+        <v>616</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>617</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>2</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>618</v>
+      </c>
+      <c r="X76" t="s">
+        <v>619</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>621</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>622</v>
+      </c>
+      <c r="J77" t="s">
+        <v>623</v>
+      </c>
+      <c r="K77" t="s">
+        <v>624</v>
+      </c>
+      <c r="L77" t="s">
+        <v>625</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>626</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>628</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>629</v>
+      </c>
+      <c r="J78" t="s">
+        <v>630</v>
+      </c>
+      <c r="K78" t="s">
+        <v>631</v>
+      </c>
+      <c r="L78" t="s">
+        <v>632</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>626</v>
+      </c>
+      <c r="O78" t="s">
+        <v>72</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>2</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>633</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>634</v>
+      </c>
+      <c r="J79" t="s">
+        <v>635</v>
+      </c>
+      <c r="K79" t="s">
+        <v>636</v>
+      </c>
+      <c r="L79" t="s">
+        <v>637</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>626</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>638</v>
+      </c>
+      <c r="X79" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>641</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>642</v>
+      </c>
+      <c r="J80" t="s">
+        <v>643</v>
+      </c>
+      <c r="K80" t="s">
+        <v>644</v>
+      </c>
+      <c r="L80" t="s">
+        <v>645</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>646</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>647</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>648</v>
+      </c>
+      <c r="J81" t="s">
+        <v>649</v>
+      </c>
+      <c r="K81" t="s">
+        <v>650</v>
+      </c>
+      <c r="L81" t="s">
+        <v>651</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>652</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>653</v>
+      </c>
+      <c r="X81" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>656</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>657</v>
+      </c>
+      <c r="J82" t="s">
+        <v>658</v>
+      </c>
+      <c r="K82" t="s">
+        <v>659</v>
+      </c>
+      <c r="L82" t="s">
+        <v>660</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>646</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>661</v>
+      </c>
+      <c r="X82" t="s">
+        <v>662</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>664</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>665</v>
+      </c>
+      <c r="J83" t="s">
+        <v>666</v>
+      </c>
+      <c r="K83" t="s">
+        <v>667</v>
+      </c>
+      <c r="L83" t="s">
+        <v>668</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>669</v>
+      </c>
+      <c r="X83" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>672</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>673</v>
+      </c>
+      <c r="J84" t="s">
+        <v>674</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>675</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>652</v>
+      </c>
+      <c r="O84" t="s">
+        <v>142</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>676</v>
+      </c>
+      <c r="X84" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>679</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>680</v>
+      </c>
+      <c r="J85" t="s">
+        <v>681</v>
+      </c>
+      <c r="K85" t="s">
+        <v>682</v>
+      </c>
+      <c r="L85" t="s">
+        <v>683</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>684</v>
+      </c>
+      <c r="O85" t="s">
+        <v>72</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>685</v>
+      </c>
+      <c r="X85" t="s">
+        <v>686</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>688</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>689</v>
+      </c>
+      <c r="J86" t="s">
+        <v>690</v>
+      </c>
+      <c r="K86" t="s">
+        <v>691</v>
+      </c>
+      <c r="L86" t="s">
+        <v>692</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>693</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>694</v>
+      </c>
+      <c r="X86" t="s">
+        <v>695</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>697</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>698</v>
+      </c>
+      <c r="J87" t="s">
+        <v>699</v>
+      </c>
+      <c r="K87" t="s">
+        <v>700</v>
+      </c>
+      <c r="L87" t="s">
+        <v>701</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>702</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>703</v>
+      </c>
+      <c r="X87" t="s">
+        <v>704</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>706</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>707</v>
+      </c>
+      <c r="J88" t="s">
+        <v>708</v>
+      </c>
+      <c r="K88" t="s">
+        <v>709</v>
+      </c>
+      <c r="L88" t="s">
+        <v>710</v>
+      </c>
+      <c r="M88" t="n">
+        <v>2</v>
+      </c>
+      <c r="N88" t="s">
+        <v>711</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>712</v>
+      </c>
+      <c r="X88" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>715</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>716</v>
+      </c>
+      <c r="J89" t="s">
+        <v>717</v>
+      </c>
+      <c r="K89" t="s">
+        <v>718</v>
+      </c>
+      <c r="L89" t="s">
+        <v>719</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="s">
+        <v>684</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>720</v>
+      </c>
+      <c r="X89" t="s">
+        <v>721</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>723</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>724</v>
+      </c>
+      <c r="J90" t="s">
+        <v>725</v>
+      </c>
+      <c r="K90" t="s">
+        <v>726</v>
+      </c>
+      <c r="L90" t="s">
+        <v>727</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>711</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="s"/>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="s"/>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>728</v>
+      </c>
+      <c r="X90" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>731</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>732</v>
+      </c>
+      <c r="J91" t="s">
+        <v>725</v>
+      </c>
+      <c r="K91" t="s">
+        <v>733</v>
+      </c>
+      <c r="L91" t="s">
+        <v>734</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>735</v>
+      </c>
+      <c r="O91" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>728</v>
+      </c>
+      <c r="X91" t="s">
+        <v>729</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>737</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>738</v>
+      </c>
+      <c r="J92" t="s">
+        <v>739</v>
+      </c>
+      <c r="K92" t="s">
+        <v>740</v>
+      </c>
+      <c r="L92" t="s">
+        <v>741</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>711</v>
+      </c>
+      <c r="O92" t="s">
+        <v>72</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>742</v>
+      </c>
+      <c r="X92" t="s">
+        <v>743</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>745</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>746</v>
+      </c>
+      <c r="J93" t="s">
+        <v>747</v>
+      </c>
+      <c r="K93" t="s">
+        <v>748</v>
+      </c>
+      <c r="L93" t="s">
+        <v>749</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>735</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>750</v>
+      </c>
+      <c r="X93" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>753</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>754</v>
+      </c>
+      <c r="J94" t="s">
+        <v>755</v>
+      </c>
+      <c r="K94" t="s">
+        <v>756</v>
+      </c>
+      <c r="L94" t="s">
+        <v>757</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>735</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>758</v>
+      </c>
+      <c r="X94" t="s">
+        <v>759</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>761</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>762</v>
+      </c>
+      <c r="J95" t="s">
+        <v>763</v>
+      </c>
+      <c r="K95" t="s">
+        <v>764</v>
+      </c>
+      <c r="L95" t="s">
+        <v>765</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>766</v>
+      </c>
+      <c r="X95" t="s">
+        <v>767</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>769</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>770</v>
+      </c>
+      <c r="J96" t="s">
+        <v>771</v>
+      </c>
+      <c r="K96" t="s">
+        <v>772</v>
+      </c>
+      <c r="L96" t="s">
+        <v>773</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="s">
+        <v>774</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>1</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>775</v>
+      </c>
+      <c r="X96" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>778</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>779</v>
+      </c>
+      <c r="J97" t="s">
+        <v>780</v>
+      </c>
+      <c r="K97" t="s">
+        <v>781</v>
+      </c>
+      <c r="L97" t="s">
+        <v>782</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>783</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="n">
+        <v>1</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>784</v>
+      </c>
+      <c r="X97" t="s">
+        <v>785</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>787</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>788</v>
+      </c>
+      <c r="J98" t="s">
+        <v>789</v>
+      </c>
+      <c r="K98" t="s">
+        <v>790</v>
+      </c>
+      <c r="L98" t="s">
+        <v>791</v>
+      </c>
+      <c r="M98" t="n">
+        <v>3</v>
+      </c>
+      <c r="N98" t="s">
+        <v>792</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>793</v>
+      </c>
+      <c r="X98" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>796</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>797</v>
+      </c>
+      <c r="J99" t="s">
+        <v>798</v>
+      </c>
+      <c r="K99" t="s">
+        <v>799</v>
+      </c>
+      <c r="L99" t="s">
+        <v>800</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>801</v>
+      </c>
+      <c r="X99" t="s">
+        <v>802</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>804</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>805</v>
+      </c>
+      <c r="J100" t="s">
+        <v>798</v>
+      </c>
+      <c r="K100" t="s">
+        <v>806</v>
+      </c>
+      <c r="L100" t="s">
+        <v>807</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>808</v>
+      </c>
+      <c r="X100" t="s">
+        <v>809</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>811</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>812</v>
+      </c>
+      <c r="J101" t="s">
+        <v>813</v>
+      </c>
+      <c r="K101" t="s">
+        <v>814</v>
+      </c>
+      <c r="L101" t="s">
+        <v>815</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>816</v>
+      </c>
+      <c r="O101" t="s">
+        <v>53</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="n">
+        <v>5</v>
+      </c>
+      <c r="S101" t="n">
+        <v>2</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>4</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>817</v>
+      </c>
+      <c r="X101" t="s">
+        <v>818</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>820</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>821</v>
+      </c>
+      <c r="J102" t="s">
+        <v>822</v>
+      </c>
+      <c r="K102" t="s">
+        <v>823</v>
+      </c>
+      <c r="L102" t="s">
+        <v>824</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>816</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>825</v>
+      </c>
+      <c r="X102" t="s">
+        <v>826</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>828</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>829</v>
+      </c>
+      <c r="J103" t="s">
+        <v>830</v>
+      </c>
+      <c r="K103" t="s">
+        <v>831</v>
+      </c>
+      <c r="L103" t="s">
+        <v>832</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>792</v>
+      </c>
+      <c r="O103" t="s">
+        <v>108</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>4</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>38009</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>833</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>834</v>
+      </c>
+      <c r="J104" t="s">
+        <v>835</v>
+      </c>
+      <c r="K104" t="s">
+        <v>836</v>
+      </c>
+      <c r="L104" t="s">
+        <v>837</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s">
+        <v>838</v>
+      </c>
+      <c r="O104" t="s">
+        <v>53</v>
+      </c>
+      <c r="P104" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>3</v>
+      </c>
+      <c r="S104" t="n">
+        <v>3</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
